--- a/doc/ExifTags.xlsx
+++ b/doc/ExifTags.xlsx
@@ -4159,9 +4159,6 @@
     <t>/app1/ifd/gps/subifd:{ulong=29}</t>
   </si>
   <si>
-    <t>/app1/ifd/gps/subifd:{ulong=30}</t>
-  </si>
-  <si>
     <t>ImageWidth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4203,6 +4200,10 @@
   </si>
   <si>
     <t>/app1/ifd/{ushort=258}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app1/ifd/gps/subifd:{ulong=30}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4387,34 +4388,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4715,7 +4716,7 @@
   <dimension ref="B4:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5384,7 +5385,7 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>1311</v>
+        <v>1322</v>
       </c>
       <c r="E34" t="s">
         <v>405</v>
@@ -5407,13 +5408,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E35" t="s">
         <v>426</v>
       </c>
       <c r="F35" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="G35" t="s">
         <v>2</v>
@@ -5427,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E36" t="s">
         <v>426</v>
@@ -5447,7 +5448,7 @@
         <v>26</v>
       </c>
       <c r="D37" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="E37" t="s">
         <v>431</v>
@@ -5531,7 +5532,7 @@
         <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E41" t="s">
         <v>365</v>
@@ -5551,7 +5552,7 @@
         <v>225</v>
       </c>
       <c r="D42" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E42" t="s">
         <v>365</v>
@@ -5591,7 +5592,7 @@
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E44" t="s">
         <v>405</v>
@@ -5969,7 +5970,7 @@
         <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E65" t="s">
         <v>1234</v>
@@ -5989,7 +5990,7 @@
         <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E66" t="s">
         <v>1234</v>
@@ -5998,7 +5999,7 @@
         <v>149</v>
       </c>
       <c r="G66" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="198">
@@ -6009,7 +6010,7 @@
         <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="E67" t="s">
         <v>1235</v>
@@ -7615,12 +7616,12 @@
       <c r="F5" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="3:10" ht="33">
       <c r="C6" s="6" t="s">
@@ -7653,186 +7654,186 @@
       <c r="F7" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="3:10" ht="21">
       <c r="C8" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="25" t="s">
         <v>427</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="3:10" ht="21">
       <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="3:10">
       <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="H10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="3:10" ht="21">
       <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="H11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="3:10" ht="31.5">
       <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="H12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="3:10">
       <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="H13" s="22"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="3:10">
       <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H14" s="22"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="3:10">
       <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="H15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="3:10">
       <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="3:10">
       <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="3:10" ht="31.5">
       <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="3:10" ht="21">
       <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="3:10" ht="21">
       <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="3:10" ht="21">
       <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
@@ -7849,36 +7850,36 @@
       <c r="F22" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="6" t="s">
@@ -7923,30 +7924,30 @@
       <c r="D27" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28" spans="3:10">
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="3:10" ht="33">
       <c r="C29" s="4" t="s">
@@ -8033,12 +8034,12 @@
       <c r="F33" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G33" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="3:10" ht="49.5">
       <c r="C34" s="17"/>
@@ -8051,10 +8052,10 @@
       <c r="F34" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="3:10" ht="49.5">
       <c r="C35" s="17"/>
@@ -8067,10 +8068,10 @@
       <c r="F35" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="3:10" ht="33">
       <c r="C36" s="17"/>
@@ -8083,112 +8084,112 @@
       <c r="F36" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="3:10" ht="21">
       <c r="C37" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="25" t="s">
         <v>427</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="3:10" ht="21">
       <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="H38" s="22"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="3:10" ht="21">
       <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="3:10" ht="21">
       <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="3:10" ht="42">
       <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="H41" s="22"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="3:10" ht="21">
       <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="H42" s="22"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="3:10" ht="31.5">
       <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="H43" s="22"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="3:10" ht="21">
       <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="H44" s="22"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
@@ -8241,12 +8242,12 @@
       <c r="F47" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="3:10" ht="49.5">
       <c r="C48" s="17"/>
@@ -8259,10 +8260,10 @@
       <c r="F48" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="3:10" ht="49.5">
       <c r="C49" s="17"/>
@@ -8275,10 +8276,10 @@
       <c r="F49" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="3:10" ht="33">
       <c r="C50" s="17"/>
@@ -8291,10 +8292,10 @@
       <c r="F50" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="3:10" ht="33">
       <c r="C51" s="6" t="s">
@@ -8372,33 +8373,33 @@
       <c r="C55" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="21" t="s">
+      <c r="E55" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="F55" s="21" t="s">
+      <c r="F55" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="23" t="s">
         <v>501</v>
       </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="3:10">
       <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22" t="s">
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="3:10" ht="33">
       <c r="C57" s="4" t="s">
@@ -8497,66 +8498,66 @@
       <c r="D62" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G62" s="22" t="s">
+      <c r="G62" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="3:10">
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
     </row>
     <row r="64" spans="3:10">
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22" t="s">
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
     </row>
     <row r="65" spans="3:10">
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22" t="s">
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
     </row>
     <row r="66" spans="3:10">
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="22" t="s">
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
     </row>
     <row r="67" spans="3:10" ht="49.5">
       <c r="C67" s="4" t="s">
@@ -8583,42 +8584,42 @@
       <c r="D68" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F68" s="21" t="s">
+      <c r="F68" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G68" s="22" t="s">
+      <c r="G68" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
     </row>
     <row r="69" spans="3:10">
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22" t="s">
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
     </row>
     <row r="70" spans="3:10">
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22" t="s">
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
     </row>
     <row r="71" spans="3:10" ht="33">
       <c r="C71" s="4" t="s">
@@ -8633,68 +8634,68 @@
       <c r="F71" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="3:10">
       <c r="C72" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="F72" s="21" t="s">
+      <c r="F72" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G72" s="25" t="s">
+      <c r="G72" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="3:10">
       <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="22" t="s">
+      <c r="D73" s="24"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22" t="s">
+      <c r="D74" s="24"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="22" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
     </row>
     <row r="76" spans="3:10" ht="33">
       <c r="C76" s="4" t="s">
@@ -8781,12 +8782,12 @@
       <c r="F80" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="3:10">
       <c r="C81" s="6" t="s">
@@ -8801,12 +8802,12 @@
       <c r="F81" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G81" s="25" t="s">
+      <c r="G81" s="26" t="s">
         <v>547</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="3:10" ht="33">
       <c r="C82" s="4" t="s">
@@ -8833,30 +8834,30 @@
       <c r="D83" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
     </row>
     <row r="84" spans="3:10">
       <c r="C84" s="19"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="22" t="s">
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="23" t="s">
         <v>552</v>
       </c>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
     </row>
     <row r="85" spans="3:10" ht="33">
       <c r="C85" s="4" t="s">
@@ -9027,42 +9028,42 @@
       <c r="D94" s="19" t="s">
         <v>572</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="E94" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F94" s="21" t="s">
+      <c r="F94" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G94" s="22" t="s">
+      <c r="G94" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="H94" s="22"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
     </row>
     <row r="95" spans="3:10">
       <c r="C95" s="19"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="21"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="22" t="s">
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="H95" s="22"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
     </row>
     <row r="96" spans="3:10">
       <c r="C96" s="19"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="21"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="22" t="s">
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
     </row>
     <row r="97" spans="3:10" ht="49.5">
       <c r="C97" s="4" t="s">
@@ -9095,12 +9096,12 @@
       <c r="F98" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="G98" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
     </row>
     <row r="99" spans="3:10" ht="33" customHeight="1">
       <c r="C99" s="19"/>
@@ -9113,12 +9114,12 @@
       <c r="F99" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="H99" s="29"/>
-      <c r="I99" s="29"/>
-      <c r="J99" s="29"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" s="17" t="s">
@@ -9133,24 +9134,24 @@
       <c r="F100" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="22" t="s">
         <v>585</v>
       </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
     </row>
     <row r="101" spans="3:10">
       <c r="C101" s="17"/>
       <c r="D101" s="17"/>
       <c r="E101" s="18"/>
       <c r="F101" s="18"/>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="22" t="s">
         <v>586</v>
       </c>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
     </row>
     <row r="102" spans="3:10" ht="33">
       <c r="C102" s="6" t="s">
@@ -9231,42 +9232,42 @@
       <c r="D106" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E106" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F106" s="21" t="s">
+      <c r="F106" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G106" s="22" t="s">
+      <c r="G106" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22" t="s">
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22" t="s">
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
     </row>
     <row r="109" spans="3:10">
       <c r="C109" s="17" t="s">
@@ -9281,24 +9282,24 @@
       <c r="F109" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G109" s="26" t="s">
+      <c r="G109" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="3:10">
       <c r="C110" s="17"/>
       <c r="D110" s="17"/>
       <c r="E110" s="18"/>
       <c r="F110" s="18"/>
-      <c r="G110" s="24" t="s">
+      <c r="G110" s="22" t="s">
         <v>603</v>
       </c>
-      <c r="H110" s="24"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="24"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
     </row>
     <row r="111" spans="3:10">
       <c r="C111" s="17"/>
@@ -9308,11 +9309,11 @@
       <c r="G111" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="H111" s="24"/>
+      <c r="H111" s="22"/>
       <c r="I111" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="J111" s="24"/>
+      <c r="J111" s="22"/>
     </row>
     <row r="112" spans="3:10" ht="21">
       <c r="C112" s="17"/>
@@ -9322,11 +9323,11 @@
       <c r="G112" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="H112" s="24"/>
+      <c r="H112" s="22"/>
       <c r="I112" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="J112" s="24"/>
+      <c r="J112" s="22"/>
     </row>
     <row r="113" spans="3:10" ht="21">
       <c r="C113" s="17"/>
@@ -9336,11 +9337,11 @@
       <c r="G113" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="H113" s="24"/>
+      <c r="H113" s="22"/>
       <c r="I113" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="J113" s="24"/>
+      <c r="J113" s="22"/>
     </row>
     <row r="114" spans="3:10" ht="33">
       <c r="C114" s="6" t="s">
@@ -9457,30 +9458,30 @@
       <c r="D120" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G120" s="22" t="s">
+      <c r="G120" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
+      <c r="H120" s="23"/>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
     </row>
     <row r="121" spans="3:10">
       <c r="C121" s="19"/>
       <c r="D121" s="19"/>
-      <c r="E121" s="21"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="22" t="s">
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="H121" s="22"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
     </row>
     <row r="122" spans="3:10" ht="33">
       <c r="C122" s="4" t="s">
@@ -9507,30 +9508,30 @@
       <c r="D123" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="E123" s="21" t="s">
+      <c r="E123" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G123" s="22" t="s">
+      <c r="G123" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="H123" s="22"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23"/>
     </row>
     <row r="124" spans="3:10">
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
-      <c r="E124" s="21"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="22" t="s">
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
     </row>
     <row r="125" spans="3:10" ht="49.5">
       <c r="C125" s="4" t="s">
@@ -9545,12 +9546,12 @@
       <c r="F125" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G125" s="27" t="s">
+      <c r="G125" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
+      <c r="H125" s="21"/>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="3:10" ht="16.5" customHeight="1">
       <c r="C126" s="19" t="s">
@@ -9559,30 +9560,30 @@
       <c r="D126" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="E126" s="21" t="s">
+      <c r="E126" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G126" s="22" t="s">
+      <c r="G126" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="H126" s="22"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
     </row>
     <row r="127" spans="3:10">
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="22" t="s">
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
     </row>
     <row r="128" spans="3:10">
       <c r="C128" s="17" t="s">
@@ -9600,7 +9601,7 @@
       <c r="G128" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="H128" s="24"/>
+      <c r="H128" s="22"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
     </row>
@@ -9612,7 +9613,7 @@
       <c r="G129" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="H129" s="24"/>
+      <c r="H129" s="22"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
     </row>
@@ -9624,7 +9625,7 @@
       <c r="G130" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="H130" s="24"/>
+      <c r="H130" s="22"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
     </row>
@@ -9636,7 +9637,7 @@
       <c r="G131" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="H131" s="24"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
     </row>
@@ -9648,7 +9649,7 @@
       <c r="G132" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="H132" s="24"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
     </row>
@@ -9660,7 +9661,7 @@
       <c r="G133" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="H133" s="24"/>
+      <c r="H133" s="22"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
@@ -9672,7 +9673,7 @@
       <c r="G134" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="H134" s="24"/>
+      <c r="H134" s="22"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
@@ -9684,7 +9685,7 @@
       <c r="G135" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="H135" s="24"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
@@ -9696,7 +9697,7 @@
       <c r="G136" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="H136" s="24"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
@@ -9707,88 +9708,88 @@
       <c r="D137" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="E137" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="25" t="s">
         <v>474</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="H137" s="22"/>
+      <c r="H137" s="23"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="3:10" ht="31.5">
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
-      <c r="E138" s="21"/>
-      <c r="F138" s="21"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
       <c r="G138" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="H138" s="22"/>
+      <c r="H138" s="23"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="3:10" ht="21">
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
-      <c r="E139" s="21"/>
-      <c r="F139" s="21"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
       <c r="G139" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="H139" s="22"/>
+      <c r="H139" s="23"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="3:10" ht="21">
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
-      <c r="E140" s="21"/>
-      <c r="F140" s="21"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
       <c r="G140" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="H140" s="22"/>
+      <c r="H140" s="23"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="3:10">
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
       <c r="G141" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="H141" s="22"/>
+      <c r="H141" s="23"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="3:10" ht="21">
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
-      <c r="E142" s="21"/>
-      <c r="F142" s="21"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
       <c r="G142" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="H142" s="22"/>
+      <c r="H142" s="23"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="3:10" ht="21">
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
-      <c r="E143" s="21"/>
-      <c r="F143" s="21"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
       <c r="G143" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="H143" s="22"/>
+      <c r="H143" s="23"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
     </row>
@@ -9913,24 +9914,24 @@
       <c r="F150" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G150" s="24" t="s">
+      <c r="G150" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="H150" s="24"/>
-      <c r="I150" s="24"/>
-      <c r="J150" s="24"/>
+      <c r="H150" s="22"/>
+      <c r="I150" s="22"/>
+      <c r="J150" s="22"/>
     </row>
     <row r="151" spans="3:10">
       <c r="C151" s="17"/>
       <c r="D151" s="17"/>
       <c r="E151" s="18"/>
       <c r="F151" s="18"/>
-      <c r="G151" s="24" t="s">
+      <c r="G151" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="H151" s="24"/>
-      <c r="I151" s="24"/>
-      <c r="J151" s="24"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
     </row>
     <row r="152" spans="3:10" ht="33">
       <c r="C152" s="19" t="s">
@@ -9945,12 +9946,12 @@
       <c r="F152" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="G152" s="25" t="s">
+      <c r="G152" s="26" t="s">
         <v>678</v>
       </c>
-      <c r="H152" s="25"/>
-      <c r="I152" s="25"/>
-      <c r="J152" s="25"/>
+      <c r="H152" s="26"/>
+      <c r="I152" s="26"/>
+      <c r="J152" s="26"/>
     </row>
     <row r="153" spans="3:10" ht="33">
       <c r="C153" s="19"/>
@@ -9963,10 +9964,10 @@
       <c r="F153" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G153" s="25"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="25"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
     </row>
     <row r="154" spans="3:10" ht="33">
       <c r="C154" s="19"/>
@@ -9979,10 +9980,10 @@
       <c r="F154" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G154" s="25"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
     </row>
     <row r="155" spans="3:10" ht="49.5">
       <c r="C155" s="19"/>
@@ -9995,10 +9996,10 @@
       <c r="F155" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="G155" s="25"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
     </row>
     <row r="156" spans="3:10" ht="49.5">
       <c r="C156" s="19"/>
@@ -10011,10 +10012,10 @@
       <c r="F156" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G156" s="25"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
     </row>
     <row r="157" spans="3:10" ht="33">
       <c r="C157" s="19"/>
@@ -10027,10 +10028,10 @@
       <c r="F157" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G157" s="25"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
     </row>
     <row r="158" spans="3:10" ht="33">
       <c r="C158" s="19"/>
@@ -10043,10 +10044,10 @@
       <c r="F158" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="G158" s="25"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
     </row>
     <row r="159" spans="3:10" ht="33">
       <c r="C159" s="19"/>
@@ -10059,10 +10060,10 @@
       <c r="F159" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="G159" s="25"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="26"/>
+      <c r="I159" s="26"/>
+      <c r="J159" s="26"/>
     </row>
     <row r="160" spans="3:10" ht="33">
       <c r="C160" s="19"/>
@@ -10075,10 +10076,10 @@
       <c r="F160" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="G160" s="25"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="26"/>
+      <c r="J160" s="26"/>
     </row>
     <row r="161" spans="3:10" ht="33">
       <c r="C161" s="19"/>
@@ -10091,10 +10092,10 @@
       <c r="F161" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G161" s="25"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="26"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="26"/>
     </row>
     <row r="162" spans="3:10" ht="33">
       <c r="C162" s="17" t="s">
@@ -10109,12 +10110,12 @@
       <c r="F162" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="H162" s="26"/>
-      <c r="I162" s="26"/>
-      <c r="J162" s="26"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="20"/>
     </row>
     <row r="163" spans="3:10" ht="33">
       <c r="C163" s="17"/>
@@ -10127,10 +10128,10 @@
       <c r="F163" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G163" s="26"/>
-      <c r="H163" s="26"/>
-      <c r="I163" s="26"/>
-      <c r="J163" s="26"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="20"/>
     </row>
     <row r="164" spans="3:10" ht="33">
       <c r="C164" s="17"/>
@@ -10143,10 +10144,10 @@
       <c r="F164" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G164" s="26"/>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
     </row>
     <row r="165" spans="3:10" ht="49.5">
       <c r="C165" s="17"/>
@@ -10159,10 +10160,10 @@
       <c r="F165" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="G165" s="26"/>
-      <c r="H165" s="26"/>
-      <c r="I165" s="26"/>
-      <c r="J165" s="26"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="20"/>
     </row>
     <row r="166" spans="3:10" ht="49.5">
       <c r="C166" s="17"/>
@@ -10175,10 +10176,10 @@
       <c r="F166" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G166" s="26"/>
-      <c r="H166" s="26"/>
-      <c r="I166" s="26"/>
-      <c r="J166" s="26"/>
+      <c r="G166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="20"/>
     </row>
     <row r="167" spans="3:10" ht="33">
       <c r="C167" s="17"/>
@@ -10191,10 +10192,10 @@
       <c r="F167" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="G167" s="26"/>
-      <c r="H167" s="26"/>
-      <c r="I167" s="26"/>
-      <c r="J167" s="26"/>
+      <c r="G167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="20"/>
     </row>
     <row r="168" spans="3:10" ht="33">
       <c r="C168" s="17"/>
@@ -10207,10 +10208,10 @@
       <c r="F168" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="G168" s="26"/>
-      <c r="H168" s="26"/>
-      <c r="I168" s="26"/>
-      <c r="J168" s="26"/>
+      <c r="G168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
     </row>
     <row r="169" spans="3:10" ht="33">
       <c r="C169" s="17"/>
@@ -10223,10 +10224,10 @@
       <c r="F169" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G169" s="26"/>
-      <c r="H169" s="26"/>
-      <c r="I169" s="26"/>
-      <c r="J169" s="26"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="20"/>
     </row>
     <row r="170" spans="3:10" ht="33">
       <c r="C170" s="17"/>
@@ -10239,10 +10240,10 @@
       <c r="F170" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="G170" s="26"/>
-      <c r="H170" s="26"/>
-      <c r="I170" s="26"/>
-      <c r="J170" s="26"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="20"/>
     </row>
     <row r="171" spans="3:10" ht="33">
       <c r="C171" s="17"/>
@@ -10255,10 +10256,10 @@
       <c r="F171" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G171" s="26"/>
-      <c r="H171" s="26"/>
-      <c r="I171" s="26"/>
-      <c r="J171" s="26"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="20"/>
     </row>
     <row r="172" spans="3:10" ht="49.5">
       <c r="C172" s="6" t="s">
@@ -10390,7 +10391,7 @@
       <c r="C179" s="17" t="s">
         <v>697</v>
       </c>
-      <c r="D179" s="23" t="s">
+      <c r="D179" s="29" t="s">
         <v>44</v>
       </c>
       <c r="E179" s="18" t="s">
@@ -10402,85 +10403,85 @@
       <c r="G179" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="H179" s="24"/>
+      <c r="H179" s="22"/>
       <c r="I179" s="10" t="s">
         <v>703</v>
       </c>
-      <c r="J179" s="24"/>
+      <c r="J179" s="22"/>
     </row>
     <row r="180" spans="3:10" ht="31.5">
       <c r="C180" s="17"/>
-      <c r="D180" s="23"/>
+      <c r="D180" s="29"/>
       <c r="E180" s="18"/>
       <c r="F180" s="18"/>
       <c r="G180" s="10" t="s">
         <v>700</v>
       </c>
-      <c r="H180" s="24"/>
+      <c r="H180" s="22"/>
       <c r="I180" s="10" t="s">
         <v>704</v>
       </c>
-      <c r="J180" s="24"/>
+      <c r="J180" s="22"/>
     </row>
     <row r="181" spans="3:10" ht="31.5">
       <c r="C181" s="17"/>
-      <c r="D181" s="23"/>
+      <c r="D181" s="29"/>
       <c r="E181" s="18"/>
       <c r="F181" s="18"/>
       <c r="G181" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="H181" s="24"/>
+      <c r="H181" s="22"/>
       <c r="I181" s="10" t="s">
         <v>705</v>
       </c>
-      <c r="J181" s="24"/>
+      <c r="J181" s="22"/>
     </row>
     <row r="182" spans="3:10" ht="31.5">
       <c r="C182" s="17"/>
-      <c r="D182" s="23"/>
+      <c r="D182" s="29"/>
       <c r="E182" s="18"/>
       <c r="F182" s="18"/>
       <c r="G182" s="10" t="s">
         <v>702</v>
       </c>
-      <c r="H182" s="24"/>
+      <c r="H182" s="22"/>
       <c r="I182" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="J182" s="24"/>
+      <c r="J182" s="22"/>
     </row>
     <row r="183" spans="3:10" ht="16.5" customHeight="1">
       <c r="C183" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="D183" s="20" t="s">
+      <c r="D183" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="E183" s="21" t="s">
+      <c r="E183" s="25" t="s">
         <v>433</v>
       </c>
-      <c r="F183" s="21" t="s">
+      <c r="F183" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="G183" s="22" t="s">
+      <c r="G183" s="23" t="s">
         <v>708</v>
       </c>
-      <c r="H183" s="22"/>
-      <c r="I183" s="22"/>
-      <c r="J183" s="22"/>
+      <c r="H183" s="23"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
     </row>
     <row r="184" spans="3:10">
       <c r="C184" s="19"/>
-      <c r="D184" s="20"/>
-      <c r="E184" s="21"/>
-      <c r="F184" s="21"/>
-      <c r="G184" s="22" t="s">
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="23" t="s">
         <v>709</v>
       </c>
-      <c r="H184" s="22"/>
-      <c r="I184" s="22"/>
-      <c r="J184" s="22"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
     </row>
     <row r="185" spans="3:10" ht="49.5">
       <c r="C185" s="4" t="s">
@@ -10502,15 +10503,183 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="H8:H21"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="D183:D184"/>
+    <mergeCell ref="E183:E184"/>
+    <mergeCell ref="F183:F184"/>
+    <mergeCell ref="G183:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G174:J174"/>
+    <mergeCell ref="G175:J175"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="G177:J177"/>
+    <mergeCell ref="G178:J178"/>
+    <mergeCell ref="C179:C182"/>
+    <mergeCell ref="D179:D182"/>
+    <mergeCell ref="E179:E182"/>
+    <mergeCell ref="F179:F182"/>
+    <mergeCell ref="J179:J182"/>
+    <mergeCell ref="C152:C161"/>
+    <mergeCell ref="G152:J161"/>
+    <mergeCell ref="C162:C171"/>
+    <mergeCell ref="G162:J171"/>
+    <mergeCell ref="G172:J172"/>
+    <mergeCell ref="G173:J173"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:J150"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="G144:J144"/>
+    <mergeCell ref="G145:J145"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G147:J147"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="G149:J149"/>
+    <mergeCell ref="C128:C136"/>
+    <mergeCell ref="D128:D136"/>
+    <mergeCell ref="E128:E136"/>
+    <mergeCell ref="F128:F136"/>
+    <mergeCell ref="C137:C143"/>
+    <mergeCell ref="D137:D143"/>
+    <mergeCell ref="E137:E143"/>
+    <mergeCell ref="F137:F143"/>
+    <mergeCell ref="G125:J125"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="G124:J124"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="D109:D113"/>
+    <mergeCell ref="E109:E113"/>
+    <mergeCell ref="F109:F113"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G87:J87"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="D72:D75"/>
+    <mergeCell ref="E72:E75"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="G73:J73"/>
+    <mergeCell ref="G74:J74"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G66:J66"/>
+    <mergeCell ref="G67:J67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:J68"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="G47:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
     <mergeCell ref="C8:C21"/>
     <mergeCell ref="D8:D21"/>
     <mergeCell ref="E8:E21"/>
@@ -10535,183 +10704,15 @@
     <mergeCell ref="D37:D44"/>
     <mergeCell ref="E37:E44"/>
     <mergeCell ref="F37:F44"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="G47:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="C72:C75"/>
-    <mergeCell ref="D72:D75"/>
-    <mergeCell ref="E72:E75"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="G73:J73"/>
-    <mergeCell ref="G74:J74"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G66:J66"/>
-    <mergeCell ref="G67:J67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:J68"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G87:J87"/>
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G92:J92"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="D109:D113"/>
-    <mergeCell ref="E109:E113"/>
-    <mergeCell ref="F109:F113"/>
-    <mergeCell ref="G109:J109"/>
-    <mergeCell ref="G110:J110"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="G120:J120"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G125:J125"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="G124:J124"/>
-    <mergeCell ref="G144:J144"/>
-    <mergeCell ref="G145:J145"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G147:J147"/>
-    <mergeCell ref="G148:J148"/>
-    <mergeCell ref="G149:J149"/>
-    <mergeCell ref="C128:C136"/>
-    <mergeCell ref="D128:D136"/>
-    <mergeCell ref="E128:E136"/>
-    <mergeCell ref="F128:F136"/>
-    <mergeCell ref="C137:C143"/>
-    <mergeCell ref="D137:D143"/>
-    <mergeCell ref="E137:E143"/>
-    <mergeCell ref="F137:F143"/>
-    <mergeCell ref="C152:C161"/>
-    <mergeCell ref="G152:J161"/>
-    <mergeCell ref="C162:C171"/>
-    <mergeCell ref="G162:J171"/>
-    <mergeCell ref="G172:J172"/>
-    <mergeCell ref="G173:J173"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:J150"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="C183:C184"/>
-    <mergeCell ref="D183:D184"/>
-    <mergeCell ref="E183:E184"/>
-    <mergeCell ref="F183:F184"/>
-    <mergeCell ref="G183:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G174:J174"/>
-    <mergeCell ref="G175:J175"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="G177:J177"/>
-    <mergeCell ref="G178:J178"/>
-    <mergeCell ref="C179:C182"/>
-    <mergeCell ref="D179:D182"/>
-    <mergeCell ref="E179:E182"/>
-    <mergeCell ref="F179:F182"/>
-    <mergeCell ref="J179:J182"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="H8:H21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10749,12 +10750,12 @@
       <c r="F3" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="3:10" ht="33">
       <c r="C4" s="4" t="s">
@@ -10805,12 +10806,12 @@
       <c r="F6" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>736</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="3:10" ht="33">
       <c r="C7" s="6" t="s">
@@ -11077,12 +11078,12 @@
       <c r="F21" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="3:10" ht="49.5">
       <c r="C22" s="4" t="s">
@@ -11241,60 +11242,60 @@
       <c r="F30" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>786</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
     </row>
     <row r="31" spans="3:10">
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="22" t="s">
         <v>788</v>
       </c>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
     </row>
     <row r="35" spans="3:10" ht="33">
       <c r="C35" s="6" t="s">
@@ -11363,24 +11364,24 @@
       <c r="F38" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="22" t="s">
         <v>800</v>
       </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="3:10" ht="33" customHeight="1">
       <c r="C40" s="19" t="s">
@@ -11389,30 +11390,30 @@
       <c r="D40" s="19" t="s">
         <v>802</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="23" t="s">
         <v>803</v>
       </c>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22" t="s">
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="23" t="s">
         <v>804</v>
       </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
     </row>
     <row r="42" spans="3:10" ht="33">
       <c r="C42" s="4" t="s">
@@ -11511,42 +11512,42 @@
       <c r="D47" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="23" t="s">
         <v>817</v>
       </c>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22" t="s">
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22" t="s">
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="23" t="s">
         <v>819</v>
       </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
     </row>
     <row r="50" spans="3:10" ht="33">
       <c r="C50" s="4" t="s">
@@ -11597,12 +11598,12 @@
       <c r="F52" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G52" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="3:10" ht="33">
       <c r="C53" s="6" t="s">
@@ -11617,12 +11618,12 @@
       <c r="F53" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G53" s="28" t="s">
+      <c r="G53" s="27" t="s">
         <v>767</v>
       </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="3:10" ht="49.5">
       <c r="C54" s="4" t="s">
@@ -11673,12 +11674,12 @@
       <c r="F56" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="G56" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
     </row>
     <row r="57" spans="3:10" ht="16.5" customHeight="1">
       <c r="C57" s="6" t="s">
@@ -11693,12 +11694,12 @@
       <c r="F57" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="27" t="s">
         <v>838</v>
       </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
     </row>
     <row r="58" spans="3:10" ht="33">
       <c r="C58" s="4" t="s">
@@ -11713,12 +11714,12 @@
       <c r="F58" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G58" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="3:10" ht="16.5" customHeight="1">
       <c r="C59" s="6" t="s">
@@ -11733,12 +11734,12 @@
       <c r="F59" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G59" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" spans="3:10" ht="33">
       <c r="C60" s="4" t="s">
@@ -11753,12 +11754,12 @@
       <c r="F60" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="21" t="s">
         <v>846</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="3:10">
       <c r="C61" s="19" t="s">
@@ -11767,66 +11768,66 @@
       <c r="D61" s="19" t="s">
         <v>848</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="23" t="s">
         <v>849</v>
       </c>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
     </row>
     <row r="62" spans="3:10">
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="22" t="s">
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="23" t="s">
         <v>850</v>
       </c>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
     </row>
     <row r="63" spans="3:10">
       <c r="C63" s="19"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="22" t="s">
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="23" t="s">
         <v>851</v>
       </c>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
     </row>
     <row r="64" spans="3:10">
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="22" t="s">
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
     </row>
     <row r="65" spans="3:10">
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="22" t="s">
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="23" t="s">
         <v>853</v>
       </c>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
     </row>
     <row r="66" spans="3:10" ht="21">
       <c r="C66" s="17" t="s">
@@ -11844,7 +11845,7 @@
       <c r="G66" s="10" t="s">
         <v>856</v>
       </c>
-      <c r="H66" s="24"/>
+      <c r="H66" s="22"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
@@ -11856,7 +11857,7 @@
       <c r="G67" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="H67" s="24"/>
+      <c r="H67" s="22"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
@@ -11868,7 +11869,7 @@
       <c r="G68" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="H68" s="24"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
@@ -11880,7 +11881,7 @@
       <c r="G69" s="10" t="s">
         <v>859</v>
       </c>
-      <c r="H69" s="24"/>
+      <c r="H69" s="22"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
@@ -11892,7 +11893,7 @@
       <c r="G70" s="10" t="s">
         <v>860</v>
       </c>
-      <c r="H70" s="24"/>
+      <c r="H70" s="22"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
@@ -11904,7 +11905,7 @@
       <c r="G71" s="10" t="s">
         <v>861</v>
       </c>
-      <c r="H71" s="24"/>
+      <c r="H71" s="22"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
@@ -11916,7 +11917,7 @@
       <c r="G72" s="10" t="s">
         <v>862</v>
       </c>
-      <c r="H72" s="24"/>
+      <c r="H72" s="22"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
@@ -11928,7 +11929,7 @@
       <c r="G73" s="10" t="s">
         <v>863</v>
       </c>
-      <c r="H73" s="24"/>
+      <c r="H73" s="22"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
     </row>
@@ -11940,7 +11941,7 @@
       <c r="G74" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="H74" s="24"/>
+      <c r="H74" s="22"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
@@ -11952,7 +11953,7 @@
       <c r="G75" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="H75" s="24"/>
+      <c r="H75" s="22"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
     </row>
@@ -11964,7 +11965,7 @@
       <c r="G76" s="10" t="s">
         <v>866</v>
       </c>
-      <c r="H76" s="24"/>
+      <c r="H76" s="22"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
@@ -12080,139 +12081,139 @@
       <c r="C83" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="26" t="s">
         <v>879</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="3:10" ht="21">
       <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="9" t="s">
         <v>880</v>
       </c>
-      <c r="H84" s="22"/>
+      <c r="H84" s="23"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="3:10">
       <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="H85" s="22"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="3:10" ht="21">
       <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="H86" s="22"/>
+      <c r="H86" s="23"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="3:10" ht="21">
       <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="H87" s="22"/>
+      <c r="H87" s="23"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="3:10" ht="31.5">
       <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="H88" s="22"/>
+      <c r="H88" s="23"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="3:10" ht="21">
       <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="9" t="s">
         <v>885</v>
       </c>
-      <c r="H89" s="22"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="3:10" ht="21">
       <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="9" t="s">
         <v>886</v>
       </c>
-      <c r="H90" s="22"/>
+      <c r="H90" s="23"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="3:10">
       <c r="C91" s="19"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="9" t="s">
         <v>887</v>
       </c>
-      <c r="H91" s="22"/>
+      <c r="H91" s="23"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="3:10" ht="21">
       <c r="C92" s="19"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="H92" s="22"/>
+      <c r="H92" s="23"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="3:10">
       <c r="C93" s="19"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="H93" s="22"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
     </row>
@@ -12247,12 +12248,12 @@
       <c r="F95" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G95" s="28" t="s">
+      <c r="G95" s="27" t="s">
         <v>892</v>
       </c>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
     </row>
     <row r="96" spans="3:10" ht="21" customHeight="1">
       <c r="C96" s="4" t="s">
@@ -12267,12 +12268,12 @@
       <c r="F96" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G96" s="26" t="s">
+      <c r="G96" s="20" t="s">
         <v>895</v>
       </c>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="3:10" ht="49.5">
       <c r="C97" s="6" t="s">
@@ -12287,12 +12288,12 @@
       <c r="F97" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="G97" s="25" t="s">
+      <c r="G97" s="26" t="s">
         <v>897</v>
       </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="3:10">
       <c r="C98" s="4" t="s">
@@ -12325,12 +12326,12 @@
       <c r="F99" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G99" s="25" t="s">
+      <c r="G99" s="26" t="s">
         <v>903</v>
       </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="3:10" ht="33">
       <c r="C100" s="4" t="s">
@@ -12354,117 +12355,117 @@
       <c r="C101" s="19" t="s">
         <v>906</v>
       </c>
-      <c r="D101" s="20" t="s">
+      <c r="D101" s="24" t="s">
         <v>907</v>
       </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F101" s="21" t="s">
+      <c r="F101" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G101" s="25" t="s">
+      <c r="G101" s="26" t="s">
         <v>908</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="19"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="21"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="22" t="s">
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="19"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="22" t="s">
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="23" t="s">
         <v>909</v>
       </c>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="23"/>
     </row>
     <row r="104" spans="3:10">
       <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="21"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="22" t="s">
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="23" t="s">
         <v>910</v>
       </c>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
+      <c r="H104" s="23"/>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="19"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22" t="s">
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="23" t="s">
         <v>911</v>
       </c>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
     </row>
     <row r="106" spans="3:10" ht="21" customHeight="1">
       <c r="C106" s="19"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="21"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="22" t="s">
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="23" t="s">
         <v>912</v>
       </c>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="19"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="21"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="22" t="s">
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="23" t="s">
         <v>913</v>
       </c>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="19"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="21"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="22" t="s">
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="23" t="s">
         <v>914</v>
       </c>
-      <c r="H108" s="22"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
     </row>
     <row r="109" spans="3:10" ht="21" customHeight="1">
       <c r="C109" s="19"/>
-      <c r="D109" s="20"/>
-      <c r="E109" s="21"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="22" t="s">
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="23" t="s">
         <v>915</v>
       </c>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
     </row>
     <row r="110" spans="3:10" ht="49.5">
       <c r="C110" s="4" t="s">
@@ -12623,12 +12624,12 @@
       <c r="F118" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G118" s="21" t="s">
         <v>935</v>
       </c>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
+      <c r="H118" s="21"/>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="3:10" ht="33">
       <c r="C119" s="6" t="s">
@@ -12661,12 +12662,12 @@
       <c r="F120" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G120" s="26" t="s">
+      <c r="G120" s="20" t="s">
         <v>937</v>
       </c>
-      <c r="H120" s="26"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="20"/>
     </row>
     <row r="121" spans="3:10" ht="33">
       <c r="C121" s="6" t="s">
@@ -12681,18 +12682,18 @@
       <c r="F121" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G121" s="26" t="s">
         <v>939</v>
       </c>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
+      <c r="H121" s="26"/>
+      <c r="I121" s="26"/>
+      <c r="J121" s="26"/>
     </row>
     <row r="122" spans="3:10">
       <c r="C122" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="29" t="s">
         <v>328</v>
       </c>
       <c r="E122" s="18" t="s">
@@ -12704,51 +12705,51 @@
       <c r="G122" s="10" t="s">
         <v>941</v>
       </c>
-      <c r="H122" s="24"/>
+      <c r="H122" s="22"/>
       <c r="I122" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="J122" s="24"/>
+      <c r="J122" s="22"/>
     </row>
     <row r="123" spans="3:10">
       <c r="C123" s="17"/>
-      <c r="D123" s="23"/>
+      <c r="D123" s="29"/>
       <c r="E123" s="18"/>
       <c r="F123" s="18"/>
       <c r="G123" s="10" t="s">
         <v>942</v>
       </c>
-      <c r="H123" s="24"/>
+      <c r="H123" s="22"/>
       <c r="I123" s="10" t="s">
         <v>946</v>
       </c>
-      <c r="J123" s="24"/>
+      <c r="J123" s="22"/>
     </row>
     <row r="124" spans="3:10">
       <c r="C124" s="17"/>
-      <c r="D124" s="23"/>
+      <c r="D124" s="29"/>
       <c r="E124" s="18"/>
       <c r="F124" s="18"/>
       <c r="G124" s="10" t="s">
         <v>943</v>
       </c>
-      <c r="H124" s="24"/>
+      <c r="H124" s="22"/>
       <c r="I124" s="10" t="s">
         <v>947</v>
       </c>
-      <c r="J124" s="24"/>
+      <c r="J124" s="22"/>
     </row>
     <row r="125" spans="3:10">
       <c r="C125" s="17"/>
-      <c r="D125" s="23"/>
+      <c r="D125" s="29"/>
       <c r="E125" s="18"/>
       <c r="F125" s="18"/>
       <c r="G125" s="10" t="s">
         <v>944</v>
       </c>
-      <c r="H125" s="24"/>
+      <c r="H125" s="22"/>
       <c r="I125" s="10"/>
-      <c r="J125" s="24"/>
+      <c r="J125" s="22"/>
     </row>
     <row r="126" spans="3:10" ht="49.5">
       <c r="C126" s="6" t="s">
@@ -12781,12 +12782,12 @@
       <c r="F127" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G127" s="26" t="s">
+      <c r="G127" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="H127" s="26"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="20"/>
     </row>
     <row r="128" spans="3:10" ht="33">
       <c r="C128" s="6" t="s">
@@ -12801,12 +12802,12 @@
       <c r="F128" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G128" s="25" t="s">
+      <c r="G128" s="26" t="s">
         <v>951</v>
       </c>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
+      <c r="H128" s="26"/>
+      <c r="I128" s="26"/>
+      <c r="J128" s="26"/>
     </row>
     <row r="129" spans="3:10" ht="33">
       <c r="C129" s="4" t="s">
@@ -12839,12 +12840,12 @@
       <c r="F130" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G130" s="25" t="s">
+      <c r="G130" s="26" t="s">
         <v>953</v>
       </c>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="26"/>
+      <c r="J130" s="26"/>
     </row>
     <row r="131" spans="3:10" ht="33">
       <c r="C131" s="4" t="s">
@@ -12859,12 +12860,12 @@
       <c r="F131" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G131" s="26" t="s">
+      <c r="G131" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="20"/>
     </row>
     <row r="132" spans="3:10" ht="33">
       <c r="C132" s="6" t="s">
@@ -12888,7 +12889,7 @@
       <c r="C133" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="18" t="s">
@@ -12900,91 +12901,91 @@
       <c r="G133" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="H133" s="24"/>
+      <c r="H133" s="22"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="3:10">
       <c r="C134" s="17"/>
-      <c r="D134" s="23"/>
+      <c r="D134" s="29"/>
       <c r="E134" s="18"/>
       <c r="F134" s="18"/>
       <c r="G134" s="10" t="s">
         <v>954</v>
       </c>
-      <c r="H134" s="24"/>
+      <c r="H134" s="22"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="3:10" ht="31.5">
       <c r="C135" s="17"/>
-      <c r="D135" s="23"/>
+      <c r="D135" s="29"/>
       <c r="E135" s="18"/>
       <c r="F135" s="18"/>
       <c r="G135" s="10" t="s">
         <v>955</v>
       </c>
-      <c r="H135" s="24"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="3:10">
       <c r="C136" s="17"/>
-      <c r="D136" s="23"/>
+      <c r="D136" s="29"/>
       <c r="E136" s="18"/>
       <c r="F136" s="18"/>
       <c r="G136" s="10" t="s">
         <v>956</v>
       </c>
-      <c r="H136" s="24"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="3:10">
       <c r="C137" s="17"/>
-      <c r="D137" s="23"/>
+      <c r="D137" s="29"/>
       <c r="E137" s="18"/>
       <c r="F137" s="18"/>
       <c r="G137" s="10" t="s">
         <v>957</v>
       </c>
-      <c r="H137" s="24"/>
+      <c r="H137" s="22"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="3:10" ht="21">
       <c r="C138" s="17"/>
-      <c r="D138" s="23"/>
+      <c r="D138" s="29"/>
       <c r="E138" s="18"/>
       <c r="F138" s="18"/>
       <c r="G138" s="10" t="s">
         <v>958</v>
       </c>
-      <c r="H138" s="24"/>
+      <c r="H138" s="22"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="3:10">
       <c r="C139" s="17"/>
-      <c r="D139" s="23"/>
+      <c r="D139" s="29"/>
       <c r="E139" s="18"/>
       <c r="F139" s="18"/>
       <c r="G139" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="H139" s="24"/>
+      <c r="H139" s="22"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="3:10">
       <c r="C140" s="17"/>
-      <c r="D140" s="23"/>
+      <c r="D140" s="29"/>
       <c r="E140" s="18"/>
       <c r="F140" s="18"/>
       <c r="G140" s="10" t="s">
         <v>960</v>
       </c>
-      <c r="H140" s="24"/>
+      <c r="H140" s="22"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
     </row>
@@ -13001,12 +13002,12 @@
       <c r="F141" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G141" s="28" t="s">
+      <c r="G141" s="27" t="s">
         <v>961</v>
       </c>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="27"/>
     </row>
     <row r="142" spans="3:10" ht="16.5" customHeight="1">
       <c r="C142" s="4" t="s">
@@ -13021,12 +13022,12 @@
       <c r="F142" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G142" s="27" t="s">
+      <c r="G142" s="21" t="s">
         <v>962</v>
       </c>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="3:10" ht="33">
       <c r="C143" s="6" t="s">
@@ -13143,66 +13144,66 @@
       <c r="D149" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E149" s="21" t="s">
+      <c r="E149" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="G149" s="22" t="s">
+      <c r="G149" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="H149" s="22"/>
-      <c r="I149" s="22"/>
-      <c r="J149" s="22"/>
+      <c r="H149" s="23"/>
+      <c r="I149" s="23"/>
+      <c r="J149" s="23"/>
     </row>
     <row r="150" spans="3:10">
       <c r="C150" s="19"/>
       <c r="D150" s="19"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="G150" s="22" t="s">
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="H150" s="22"/>
-      <c r="I150" s="22"/>
-      <c r="J150" s="22"/>
+      <c r="H150" s="23"/>
+      <c r="I150" s="23"/>
+      <c r="J150" s="23"/>
     </row>
     <row r="151" spans="3:10">
       <c r="C151" s="19"/>
       <c r="D151" s="19"/>
-      <c r="E151" s="21"/>
-      <c r="F151" s="21"/>
-      <c r="G151" s="22" t="s">
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
+      <c r="H151" s="23"/>
+      <c r="I151" s="23"/>
+      <c r="J151" s="23"/>
     </row>
     <row r="152" spans="3:10">
       <c r="C152" s="19"/>
       <c r="D152" s="19"/>
-      <c r="E152" s="21"/>
-      <c r="F152" s="21"/>
-      <c r="G152" s="22" t="s">
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="23" t="s">
         <v>971</v>
       </c>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
     </row>
     <row r="153" spans="3:10">
       <c r="C153" s="19"/>
       <c r="D153" s="19"/>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
-      <c r="G153" s="22" t="s">
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="23" t="s">
         <v>972</v>
       </c>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
+      <c r="H153" s="23"/>
+      <c r="I153" s="23"/>
+      <c r="J153" s="23"/>
     </row>
     <row r="154" spans="3:10" ht="33">
       <c r="C154" s="4" t="s">
@@ -13229,66 +13230,66 @@
       <c r="D155" s="19" t="s">
         <v>976</v>
       </c>
-      <c r="E155" s="21" t="s">
+      <c r="E155" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G155" s="22" t="s">
+      <c r="G155" s="23" t="s">
         <v>977</v>
       </c>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
     </row>
     <row r="156" spans="3:10">
       <c r="C156" s="19"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="21"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="22" t="s">
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="23" t="s">
         <v>978</v>
       </c>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
     </row>
     <row r="157" spans="3:10">
       <c r="C157" s="19"/>
       <c r="D157" s="19"/>
-      <c r="E157" s="21"/>
-      <c r="F157" s="21"/>
-      <c r="G157" s="22" t="s">
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="23" t="s">
         <v>979</v>
       </c>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="22"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
     </row>
     <row r="158" spans="3:10">
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="22" t="s">
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="23" t="s">
         <v>980</v>
       </c>
-      <c r="H158" s="22"/>
-      <c r="I158" s="22"/>
-      <c r="J158" s="22"/>
+      <c r="H158" s="23"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
     </row>
     <row r="159" spans="3:10">
       <c r="C159" s="19"/>
       <c r="D159" s="19"/>
-      <c r="E159" s="21"/>
-      <c r="F159" s="21"/>
-      <c r="G159" s="22" t="s">
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="23" t="s">
         <v>981</v>
       </c>
-      <c r="H159" s="22"/>
-      <c r="I159" s="22"/>
-      <c r="J159" s="22"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
     </row>
     <row r="160" spans="3:10" ht="33">
       <c r="C160" s="4" t="s">
@@ -13375,12 +13376,12 @@
       <c r="F164" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="20" t="s">
         <v>988</v>
       </c>
-      <c r="H164" s="26"/>
-      <c r="I164" s="26"/>
-      <c r="J164" s="26"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="20"/>
     </row>
     <row r="165" spans="3:10" ht="31.5">
       <c r="C165" s="17"/>
@@ -13390,7 +13391,7 @@
       <c r="G165" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="H165" s="24"/>
+      <c r="H165" s="22"/>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
     </row>
@@ -13402,7 +13403,7 @@
       <c r="G166" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="H166" s="24"/>
+      <c r="H166" s="22"/>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
     </row>
@@ -13414,7 +13415,7 @@
       <c r="G167" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="H167" s="24"/>
+      <c r="H167" s="22"/>
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
     </row>
@@ -13426,7 +13427,7 @@
       <c r="G168" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="H168" s="24"/>
+      <c r="H168" s="22"/>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
     </row>
@@ -13438,7 +13439,7 @@
       <c r="G169" s="10" t="s">
         <v>993</v>
       </c>
-      <c r="H169" s="24"/>
+      <c r="H169" s="22"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
     </row>
@@ -13450,7 +13451,7 @@
       <c r="G170" s="10" t="s">
         <v>994</v>
       </c>
-      <c r="H170" s="24"/>
+      <c r="H170" s="22"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
     </row>
@@ -13462,7 +13463,7 @@
       <c r="G171" s="10" t="s">
         <v>995</v>
       </c>
-      <c r="H171" s="24"/>
+      <c r="H171" s="22"/>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
     </row>
@@ -13474,7 +13475,7 @@
       <c r="G172" s="10" t="s">
         <v>996</v>
       </c>
-      <c r="H172" s="24"/>
+      <c r="H172" s="22"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
     </row>
@@ -13563,12 +13564,12 @@
       <c r="F177" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G177" s="28" t="s">
+      <c r="G177" s="27" t="s">
         <v>1080</v>
       </c>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
     </row>
     <row r="178" spans="3:15" ht="33">
       <c r="C178" s="19"/>
@@ -13581,12 +13582,12 @@
       <c r="F178" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G178" s="28" t="s">
+      <c r="G178" s="27" t="s">
         <v>1081</v>
       </c>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
       <c r="M178" t="s">
         <v>639</v>
       </c>
@@ -13608,12 +13609,12 @@
       <c r="F179" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G179" s="28" t="s">
+      <c r="G179" s="27" t="s">
         <v>1082</v>
       </c>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
       <c r="M179" t="s">
         <v>1244</v>
       </c>
@@ -13635,12 +13636,12 @@
       <c r="F180" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G180" s="28" t="s">
+      <c r="G180" s="27" t="s">
         <v>1083</v>
       </c>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
       <c r="M180" t="s">
         <v>1247</v>
       </c>
@@ -13662,12 +13663,12 @@
       <c r="F181" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G181" s="28" t="s">
+      <c r="G181" s="27" t="s">
         <v>1084</v>
       </c>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
       <c r="M181" t="s">
         <v>1250</v>
       </c>
@@ -13689,12 +13690,12 @@
       <c r="F182" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G182" s="28" t="s">
+      <c r="G182" s="27" t="s">
         <v>1085</v>
       </c>
-      <c r="H182" s="28"/>
-      <c r="I182" s="28"/>
-      <c r="J182" s="28"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
       <c r="M182" t="s">
         <v>1253</v>
       </c>
@@ -13716,12 +13717,12 @@
       <c r="F183" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G183" s="28" t="s">
+      <c r="G183" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="H183" s="28"/>
-      <c r="I183" s="28"/>
-      <c r="J183" s="28"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
       <c r="M183" t="s">
         <v>1256</v>
       </c>
@@ -13743,12 +13744,12 @@
       <c r="F184" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G184" s="28" t="s">
+      <c r="G184" s="27" t="s">
         <v>1087</v>
       </c>
-      <c r="H184" s="28"/>
-      <c r="I184" s="28"/>
-      <c r="J184" s="28"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
       <c r="M184" t="s">
         <v>1258</v>
       </c>
@@ -13767,12 +13768,12 @@
       <c r="F185" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G185" s="28" t="s">
+      <c r="G185" s="27" t="s">
         <v>1086</v>
       </c>
-      <c r="H185" s="28"/>
-      <c r="I185" s="28"/>
-      <c r="J185" s="28"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
       <c r="M185" t="s">
         <v>1260</v>
       </c>
@@ -13791,12 +13792,12 @@
       <c r="F186" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G186" s="28" t="s">
+      <c r="G186" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
-      <c r="J186" s="28"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
     </row>
     <row r="187" spans="3:15" ht="33">
       <c r="C187" s="19"/>
@@ -13809,12 +13810,12 @@
       <c r="F187" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G187" s="28" t="s">
+      <c r="G187" s="27" t="s">
         <v>1089</v>
       </c>
-      <c r="H187" s="28"/>
-      <c r="I187" s="28"/>
-      <c r="J187" s="28"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
     </row>
     <row r="188" spans="3:15" ht="33">
       <c r="C188" s="19"/>
@@ -13827,12 +13828,12 @@
       <c r="F188" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G188" s="28" t="s">
+      <c r="G188" s="27" t="s">
         <v>1090</v>
       </c>
-      <c r="H188" s="28"/>
-      <c r="I188" s="28"/>
-      <c r="J188" s="28"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
     </row>
     <row r="189" spans="3:15" ht="33">
       <c r="C189" s="19"/>
@@ -13845,12 +13846,12 @@
       <c r="F189" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G189" s="28" t="s">
+      <c r="G189" s="27" t="s">
         <v>1091</v>
       </c>
-      <c r="H189" s="28"/>
-      <c r="I189" s="28"/>
-      <c r="J189" s="28"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
     </row>
     <row r="190" spans="3:15" ht="33">
       <c r="C190" s="19"/>
@@ -13863,12 +13864,12 @@
       <c r="F190" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G190" s="28" t="s">
+      <c r="G190" s="27" t="s">
         <v>1092</v>
       </c>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
     </row>
     <row r="191" spans="3:15" ht="33">
       <c r="C191" s="19"/>
@@ -13881,12 +13882,12 @@
       <c r="F191" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G191" s="28" t="s">
+      <c r="G191" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="H191" s="28"/>
-      <c r="I191" s="28"/>
-      <c r="J191" s="28"/>
+      <c r="H191" s="27"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
     </row>
     <row r="192" spans="3:15" ht="33">
       <c r="C192" s="19"/>
@@ -13899,12 +13900,12 @@
       <c r="F192" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G192" s="28" t="s">
+      <c r="G192" s="27" t="s">
         <v>1093</v>
       </c>
-      <c r="H192" s="28"/>
-      <c r="I192" s="28"/>
-      <c r="J192" s="28"/>
+      <c r="H192" s="27"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
     </row>
     <row r="193" spans="3:10" ht="33">
       <c r="C193" s="19"/>
@@ -13917,12 +13918,12 @@
       <c r="F193" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G193" s="28" t="s">
+      <c r="G193" s="27" t="s">
         <v>1094</v>
       </c>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
     </row>
     <row r="194" spans="3:10" ht="49.5">
       <c r="C194" s="19"/>
@@ -13935,12 +13936,12 @@
       <c r="F194" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G194" s="28" t="s">
+      <c r="G194" s="27" t="s">
         <v>1095</v>
       </c>
-      <c r="H194" s="28"/>
-      <c r="I194" s="28"/>
-      <c r="J194" s="28"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
     </row>
     <row r="195" spans="3:10" ht="49.5">
       <c r="C195" s="19"/>
@@ -13953,12 +13954,12 @@
       <c r="F195" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G195" s="28" t="s">
+      <c r="G195" s="27" t="s">
         <v>1095</v>
       </c>
-      <c r="H195" s="28"/>
-      <c r="I195" s="28"/>
-      <c r="J195" s="28"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
     </row>
     <row r="196" spans="3:10" ht="33">
       <c r="C196" s="19"/>
@@ -13971,12 +13972,12 @@
       <c r="F196" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G196" s="28" t="s">
+      <c r="G196" s="27" t="s">
         <v>1096</v>
       </c>
-      <c r="H196" s="28"/>
-      <c r="I196" s="28"/>
-      <c r="J196" s="28"/>
+      <c r="H196" s="27"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27"/>
     </row>
     <row r="197" spans="3:10" ht="33">
       <c r="C197" s="19"/>
@@ -13989,12 +13990,12 @@
       <c r="F197" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G197" s="28" t="s">
+      <c r="G197" s="27" t="s">
         <v>1097</v>
       </c>
-      <c r="H197" s="28"/>
-      <c r="I197" s="28"/>
-      <c r="J197" s="28"/>
+      <c r="H197" s="27"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
     </row>
     <row r="198" spans="3:10" ht="33">
       <c r="C198" s="19"/>
@@ -14007,12 +14008,12 @@
       <c r="F198" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G198" s="28" t="s">
+      <c r="G198" s="27" t="s">
         <v>1098</v>
       </c>
-      <c r="H198" s="28"/>
-      <c r="I198" s="28"/>
-      <c r="J198" s="28"/>
+      <c r="H198" s="27"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
     </row>
     <row r="199" spans="3:10" ht="33">
       <c r="C199" s="19"/>
@@ -14025,12 +14026,12 @@
       <c r="F199" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G199" s="28" t="s">
+      <c r="G199" s="27" t="s">
         <v>1099</v>
       </c>
-      <c r="H199" s="28"/>
-      <c r="I199" s="28"/>
-      <c r="J199" s="28"/>
+      <c r="H199" s="27"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="27"/>
     </row>
     <row r="200" spans="3:10" ht="49.5">
       <c r="C200" s="19"/>
@@ -14043,12 +14044,12 @@
       <c r="F200" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G200" s="28" t="s">
+      <c r="G200" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="H200" s="28"/>
-      <c r="I200" s="28"/>
-      <c r="J200" s="28"/>
+      <c r="H200" s="27"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="27"/>
     </row>
     <row r="201" spans="3:10" ht="49.5">
       <c r="C201" s="19"/>
@@ -14061,12 +14062,12 @@
       <c r="F201" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G201" s="28" t="s">
+      <c r="G201" s="27" t="s">
         <v>1100</v>
       </c>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
-      <c r="J201" s="28"/>
+      <c r="H201" s="27"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
     </row>
     <row r="202" spans="3:10" ht="33">
       <c r="C202" s="19"/>
@@ -14079,12 +14080,12 @@
       <c r="F202" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G202" s="28" t="s">
+      <c r="G202" s="27" t="s">
         <v>1101</v>
       </c>
-      <c r="H202" s="28"/>
-      <c r="I202" s="28"/>
-      <c r="J202" s="28"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
     </row>
     <row r="203" spans="3:10" ht="49.5">
       <c r="C203" s="19"/>
@@ -14097,12 +14098,12 @@
       <c r="F203" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G203" s="28" t="s">
+      <c r="G203" s="27" t="s">
         <v>1102</v>
       </c>
-      <c r="H203" s="28"/>
-      <c r="I203" s="28"/>
-      <c r="J203" s="28"/>
+      <c r="H203" s="27"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
     </row>
     <row r="204" spans="3:10" ht="49.5">
       <c r="C204" s="19"/>
@@ -14115,12 +14116,12 @@
       <c r="F204" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G204" s="28" t="s">
+      <c r="G204" s="27" t="s">
         <v>1102</v>
       </c>
-      <c r="H204" s="28"/>
-      <c r="I204" s="28"/>
-      <c r="J204" s="28"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
     </row>
     <row r="205" spans="3:10" ht="33">
       <c r="C205" s="19"/>
@@ -14133,12 +14134,12 @@
       <c r="F205" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G205" s="28" t="s">
+      <c r="G205" s="27" t="s">
         <v>1103</v>
       </c>
-      <c r="H205" s="28"/>
-      <c r="I205" s="28"/>
-      <c r="J205" s="28"/>
+      <c r="H205" s="27"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="27"/>
     </row>
     <row r="206" spans="3:10" ht="49.5">
       <c r="C206" s="19"/>
@@ -14151,12 +14152,12 @@
       <c r="F206" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G206" s="28" t="s">
+      <c r="G206" s="27" t="s">
         <v>1104</v>
       </c>
-      <c r="H206" s="28"/>
-      <c r="I206" s="28"/>
-      <c r="J206" s="28"/>
+      <c r="H206" s="27"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="27"/>
     </row>
     <row r="207" spans="3:10" ht="49.5">
       <c r="C207" s="19"/>
@@ -14169,12 +14170,12 @@
       <c r="F207" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G207" s="28" t="s">
+      <c r="G207" s="27" t="s">
         <v>1105</v>
       </c>
-      <c r="H207" s="28"/>
-      <c r="I207" s="28"/>
-      <c r="J207" s="28"/>
+      <c r="H207" s="27"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="27"/>
     </row>
     <row r="208" spans="3:10" ht="33">
       <c r="C208" s="19"/>
@@ -14187,12 +14188,12 @@
       <c r="F208" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G208" s="28" t="s">
+      <c r="G208" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="H208" s="28"/>
-      <c r="I208" s="28"/>
-      <c r="J208" s="28"/>
+      <c r="H208" s="27"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
     </row>
     <row r="209" spans="3:10" ht="33">
       <c r="C209" s="19"/>
@@ -14205,12 +14206,12 @@
       <c r="F209" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G209" s="28" t="s">
+      <c r="G209" s="27" t="s">
         <v>1106</v>
       </c>
-      <c r="H209" s="28"/>
-      <c r="I209" s="28"/>
-      <c r="J209" s="28"/>
+      <c r="H209" s="27"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
     </row>
     <row r="210" spans="3:10" ht="49.5">
       <c r="C210" s="19"/>
@@ -14223,12 +14224,12 @@
       <c r="F210" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G210" s="28" t="s">
+      <c r="G210" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="H210" s="28"/>
-      <c r="I210" s="28"/>
-      <c r="J210" s="28"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
     </row>
     <row r="211" spans="3:10" ht="49.5">
       <c r="C211" s="19"/>
@@ -14241,12 +14242,12 @@
       <c r="F211" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G211" s="29" t="s">
+      <c r="G211" s="28" t="s">
         <v>1108</v>
       </c>
-      <c r="H211" s="29"/>
-      <c r="I211" s="29"/>
-      <c r="J211" s="29"/>
+      <c r="H211" s="28"/>
+      <c r="I211" s="28"/>
+      <c r="J211" s="28"/>
     </row>
     <row r="212" spans="3:10" ht="33">
       <c r="C212" s="19"/>
@@ -14259,12 +14260,12 @@
       <c r="F212" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G212" s="28" t="s">
+      <c r="G212" s="27" t="s">
         <v>1109</v>
       </c>
-      <c r="H212" s="28"/>
-      <c r="I212" s="28"/>
-      <c r="J212" s="28"/>
+      <c r="H212" s="27"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="27"/>
     </row>
     <row r="213" spans="3:10" ht="33">
       <c r="C213" s="19"/>
@@ -14277,12 +14278,12 @@
       <c r="F213" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G213" s="28" t="s">
+      <c r="G213" s="27" t="s">
         <v>1081</v>
       </c>
-      <c r="H213" s="28"/>
-      <c r="I213" s="28"/>
-      <c r="J213" s="28"/>
+      <c r="H213" s="27"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
     </row>
     <row r="214" spans="3:10" ht="49.5">
       <c r="C214" s="19"/>
@@ -14295,12 +14296,12 @@
       <c r="F214" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G214" s="28" t="s">
+      <c r="G214" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="H214" s="28"/>
-      <c r="I214" s="28"/>
-      <c r="J214" s="28"/>
+      <c r="H214" s="27"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="27"/>
     </row>
     <row r="215" spans="3:10" ht="49.5">
       <c r="C215" s="19"/>
@@ -14313,12 +14314,12 @@
       <c r="F215" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G215" s="28" t="s">
+      <c r="G215" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="H215" s="28"/>
-      <c r="I215" s="28"/>
-      <c r="J215" s="28"/>
+      <c r="H215" s="27"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="27"/>
     </row>
     <row r="216" spans="3:10" ht="33">
       <c r="C216" s="19"/>
@@ -14331,12 +14332,12 @@
       <c r="F216" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G216" s="28" t="s">
+      <c r="G216" s="27" t="s">
         <v>1110</v>
       </c>
-      <c r="H216" s="28"/>
-      <c r="I216" s="28"/>
-      <c r="J216" s="28"/>
+      <c r="H216" s="27"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="27"/>
     </row>
     <row r="217" spans="3:10" ht="33">
       <c r="C217" s="19"/>
@@ -14349,12 +14350,12 @@
       <c r="F217" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G217" s="28" t="s">
+      <c r="G217" s="27" t="s">
         <v>1111</v>
       </c>
-      <c r="H217" s="28"/>
-      <c r="I217" s="28"/>
-      <c r="J217" s="28"/>
+      <c r="H217" s="27"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
     </row>
     <row r="218" spans="3:10" ht="33">
       <c r="C218" s="19"/>
@@ -14367,12 +14368,12 @@
       <c r="F218" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G218" s="28" t="s">
+      <c r="G218" s="27" t="s">
         <v>1112</v>
       </c>
-      <c r="H218" s="28"/>
-      <c r="I218" s="28"/>
-      <c r="J218" s="28"/>
+      <c r="H218" s="27"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
     </row>
     <row r="219" spans="3:10" ht="33">
       <c r="C219" s="19"/>
@@ -14385,12 +14386,12 @@
       <c r="F219" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G219" s="28" t="s">
+      <c r="G219" s="27" t="s">
         <v>1113</v>
       </c>
-      <c r="H219" s="28"/>
-      <c r="I219" s="28"/>
-      <c r="J219" s="28"/>
+      <c r="H219" s="27"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="27"/>
     </row>
     <row r="220" spans="3:10" ht="33">
       <c r="C220" s="19"/>
@@ -14403,12 +14404,12 @@
       <c r="F220" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G220" s="28" t="s">
+      <c r="G220" s="27" t="s">
         <v>1114</v>
       </c>
-      <c r="H220" s="28"/>
-      <c r="I220" s="28"/>
-      <c r="J220" s="28"/>
+      <c r="H220" s="27"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
     </row>
     <row r="221" spans="3:10" ht="33">
       <c r="C221" s="19"/>
@@ -14421,12 +14422,12 @@
       <c r="F221" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G221" s="28" t="s">
+      <c r="G221" s="27" t="s">
         <v>1115</v>
       </c>
-      <c r="H221" s="28"/>
-      <c r="I221" s="28"/>
-      <c r="J221" s="28"/>
+      <c r="H221" s="27"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="27"/>
     </row>
     <row r="222" spans="3:10" ht="49.5">
       <c r="C222" s="19"/>
@@ -14439,12 +14440,12 @@
       <c r="F222" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G222" s="28" t="s">
+      <c r="G222" s="27" t="s">
         <v>1110</v>
       </c>
-      <c r="H222" s="28"/>
-      <c r="I222" s="28"/>
-      <c r="J222" s="28"/>
+      <c r="H222" s="27"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="27"/>
     </row>
     <row r="223" spans="3:10" ht="49.5">
       <c r="C223" s="19"/>
@@ -14457,12 +14458,12 @@
       <c r="F223" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G223" s="28" t="s">
+      <c r="G223" s="27" t="s">
         <v>1116</v>
       </c>
-      <c r="H223" s="28"/>
-      <c r="I223" s="28"/>
-      <c r="J223" s="28"/>
+      <c r="H223" s="27"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="27"/>
     </row>
     <row r="224" spans="3:10" ht="33">
       <c r="C224" s="19"/>
@@ -14475,12 +14476,12 @@
       <c r="F224" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G224" s="28" t="s">
+      <c r="G224" s="27" t="s">
         <v>1117</v>
       </c>
-      <c r="H224" s="28"/>
-      <c r="I224" s="28"/>
-      <c r="J224" s="28"/>
+      <c r="H224" s="27"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
     </row>
     <row r="225" spans="3:10" ht="33">
       <c r="C225" s="19"/>
@@ -14493,12 +14494,12 @@
       <c r="F225" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G225" s="28" t="s">
+      <c r="G225" s="27" t="s">
         <v>1118</v>
       </c>
-      <c r="H225" s="28"/>
-      <c r="I225" s="28"/>
-      <c r="J225" s="28"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
     </row>
     <row r="226" spans="3:10" ht="33">
       <c r="C226" s="19"/>
@@ -14511,12 +14512,12 @@
       <c r="F226" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G226" s="28" t="s">
+      <c r="G226" s="27" t="s">
         <v>1084</v>
       </c>
-      <c r="H226" s="28"/>
-      <c r="I226" s="28"/>
-      <c r="J226" s="28"/>
+      <c r="H226" s="27"/>
+      <c r="I226" s="27"/>
+      <c r="J226" s="27"/>
     </row>
     <row r="227" spans="3:10" ht="33">
       <c r="C227" s="19"/>
@@ -14529,12 +14530,12 @@
       <c r="F227" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G227" s="28" t="s">
+      <c r="G227" s="27" t="s">
         <v>1119</v>
       </c>
-      <c r="H227" s="28"/>
-      <c r="I227" s="28"/>
-      <c r="J227" s="28"/>
+      <c r="H227" s="27"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
     </row>
     <row r="228" spans="3:10" ht="33">
       <c r="C228" s="19"/>
@@ -14547,12 +14548,12 @@
       <c r="F228" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G228" s="28" t="s">
+      <c r="G228" s="27" t="s">
         <v>1117</v>
       </c>
-      <c r="H228" s="28"/>
-      <c r="I228" s="28"/>
-      <c r="J228" s="28"/>
+      <c r="H228" s="27"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
     </row>
     <row r="229" spans="3:10" ht="33">
       <c r="C229" s="19"/>
@@ -14565,12 +14566,12 @@
       <c r="F229" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G229" s="28" t="s">
+      <c r="G229" s="27" t="s">
         <v>1120</v>
       </c>
-      <c r="H229" s="28"/>
-      <c r="I229" s="28"/>
-      <c r="J229" s="28"/>
+      <c r="H229" s="27"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="27"/>
     </row>
     <row r="230" spans="3:10" ht="49.5">
       <c r="C230" s="19"/>
@@ -14583,12 +14584,12 @@
       <c r="F230" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G230" s="28" t="s">
+      <c r="G230" s="27" t="s">
         <v>1121</v>
       </c>
-      <c r="H230" s="28"/>
-      <c r="I230" s="28"/>
-      <c r="J230" s="28"/>
+      <c r="H230" s="27"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="27"/>
     </row>
     <row r="231" spans="3:10" ht="49.5">
       <c r="C231" s="19"/>
@@ -14601,12 +14602,12 @@
       <c r="F231" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G231" s="28" t="s">
+      <c r="G231" s="27" t="s">
         <v>1122</v>
       </c>
-      <c r="H231" s="28"/>
-      <c r="I231" s="28"/>
-      <c r="J231" s="28"/>
+      <c r="H231" s="27"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
     </row>
     <row r="232" spans="3:10" ht="33">
       <c r="C232" s="19"/>
@@ -14619,12 +14620,12 @@
       <c r="F232" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G232" s="28" t="s">
+      <c r="G232" s="27" t="s">
         <v>1123</v>
       </c>
-      <c r="H232" s="28"/>
-      <c r="I232" s="28"/>
-      <c r="J232" s="28"/>
+      <c r="H232" s="27"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
     </row>
     <row r="233" spans="3:10" ht="49.5">
       <c r="C233" s="19"/>
@@ -14637,12 +14638,12 @@
       <c r="F233" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G233" s="28" t="s">
+      <c r="G233" s="27" t="s">
         <v>1124</v>
       </c>
-      <c r="H233" s="28"/>
-      <c r="I233" s="28"/>
-      <c r="J233" s="28"/>
+      <c r="H233" s="27"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="27"/>
     </row>
     <row r="234" spans="3:10" ht="49.5">
       <c r="C234" s="19"/>
@@ -14655,12 +14656,12 @@
       <c r="F234" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G234" s="29" t="s">
+      <c r="G234" s="28" t="s">
         <v>1125</v>
       </c>
-      <c r="H234" s="29"/>
-      <c r="I234" s="29"/>
-      <c r="J234" s="29"/>
+      <c r="H234" s="28"/>
+      <c r="I234" s="28"/>
+      <c r="J234" s="28"/>
     </row>
     <row r="235" spans="3:10" ht="49.5">
       <c r="C235" s="19"/>
@@ -14673,12 +14674,12 @@
       <c r="F235" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G235" s="28" t="s">
+      <c r="G235" s="27" t="s">
         <v>1126</v>
       </c>
-      <c r="H235" s="28"/>
-      <c r="I235" s="28"/>
-      <c r="J235" s="28"/>
+      <c r="H235" s="27"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="27"/>
     </row>
     <row r="236" spans="3:10" ht="49.5">
       <c r="C236" s="19"/>
@@ -14691,12 +14692,12 @@
       <c r="F236" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G236" s="28" t="s">
+      <c r="G236" s="27" t="s">
         <v>1127</v>
       </c>
-      <c r="H236" s="28"/>
-      <c r="I236" s="28"/>
-      <c r="J236" s="28"/>
+      <c r="H236" s="27"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
     </row>
     <row r="237" spans="3:10" ht="33">
       <c r="C237" s="19"/>
@@ -14709,12 +14710,12 @@
       <c r="F237" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G237" s="28" t="s">
+      <c r="G237" s="27" t="s">
         <v>1128</v>
       </c>
-      <c r="H237" s="28"/>
-      <c r="I237" s="28"/>
-      <c r="J237" s="28"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
     </row>
     <row r="238" spans="3:10" ht="49.5">
       <c r="C238" s="19"/>
@@ -14727,12 +14728,12 @@
       <c r="F238" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G238" s="28" t="s">
+      <c r="G238" s="27" t="s">
         <v>1128</v>
       </c>
-      <c r="H238" s="28"/>
-      <c r="I238" s="28"/>
-      <c r="J238" s="28"/>
+      <c r="H238" s="27"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
     </row>
     <row r="239" spans="3:10" ht="49.5">
       <c r="C239" s="19"/>
@@ -14745,12 +14746,12 @@
       <c r="F239" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G239" s="28" t="s">
+      <c r="G239" s="27" t="s">
         <v>1128</v>
       </c>
-      <c r="H239" s="28"/>
-      <c r="I239" s="28"/>
-      <c r="J239" s="28"/>
+      <c r="H239" s="27"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="27"/>
     </row>
     <row r="240" spans="3:10" ht="33">
       <c r="C240" s="19"/>
@@ -14763,12 +14764,12 @@
       <c r="F240" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G240" s="28" t="s">
+      <c r="G240" s="27" t="s">
         <v>1129</v>
       </c>
-      <c r="H240" s="28"/>
-      <c r="I240" s="28"/>
-      <c r="J240" s="28"/>
+      <c r="H240" s="27"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="27"/>
     </row>
     <row r="241" spans="3:10" ht="33">
       <c r="C241" s="19"/>
@@ -14781,12 +14782,12 @@
       <c r="F241" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G241" s="28" t="s">
+      <c r="G241" s="27" t="s">
         <v>1130</v>
       </c>
-      <c r="H241" s="28"/>
-      <c r="I241" s="28"/>
-      <c r="J241" s="28"/>
+      <c r="H241" s="27"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="27"/>
     </row>
     <row r="242" spans="3:10" ht="33">
       <c r="C242" s="19"/>
@@ -14799,12 +14800,12 @@
       <c r="F242" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G242" s="28" t="s">
+      <c r="G242" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="H242" s="28"/>
-      <c r="I242" s="28"/>
-      <c r="J242" s="28"/>
+      <c r="H242" s="27"/>
+      <c r="I242" s="27"/>
+      <c r="J242" s="27"/>
     </row>
     <row r="243" spans="3:10" ht="33">
       <c r="C243" s="19"/>
@@ -14817,12 +14818,12 @@
       <c r="F243" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G243" s="28" t="s">
+      <c r="G243" s="27" t="s">
         <v>1107</v>
       </c>
-      <c r="H243" s="28"/>
-      <c r="I243" s="28"/>
-      <c r="J243" s="28"/>
+      <c r="H243" s="27"/>
+      <c r="I243" s="27"/>
+      <c r="J243" s="27"/>
     </row>
     <row r="244" spans="3:10" ht="33">
       <c r="C244" s="19"/>
@@ -14835,12 +14836,12 @@
       <c r="F244" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G244" s="28" t="s">
+      <c r="G244" s="27" t="s">
         <v>1131</v>
       </c>
-      <c r="H244" s="28"/>
-      <c r="I244" s="28"/>
-      <c r="J244" s="28"/>
+      <c r="H244" s="27"/>
+      <c r="I244" s="27"/>
+      <c r="J244" s="27"/>
     </row>
     <row r="245" spans="3:10" ht="33">
       <c r="C245" s="19"/>
@@ -14853,12 +14854,12 @@
       <c r="F245" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G245" s="28" t="s">
+      <c r="G245" s="27" t="s">
         <v>1130</v>
       </c>
-      <c r="H245" s="28"/>
-      <c r="I245" s="28"/>
-      <c r="J245" s="28"/>
+      <c r="H245" s="27"/>
+      <c r="I245" s="27"/>
+      <c r="J245" s="27"/>
     </row>
     <row r="246" spans="3:10" ht="49.5">
       <c r="C246" s="19"/>
@@ -14871,12 +14872,12 @@
       <c r="F246" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G246" s="28" t="s">
+      <c r="G246" s="27" t="s">
         <v>1132</v>
       </c>
-      <c r="H246" s="28"/>
-      <c r="I246" s="28"/>
-      <c r="J246" s="28"/>
+      <c r="H246" s="27"/>
+      <c r="I246" s="27"/>
+      <c r="J246" s="27"/>
     </row>
     <row r="247" spans="3:10" ht="49.5">
       <c r="C247" s="19"/>
@@ -14889,12 +14890,12 @@
       <c r="F247" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G247" s="28" t="s">
+      <c r="G247" s="27" t="s">
         <v>1133</v>
       </c>
-      <c r="H247" s="28"/>
-      <c r="I247" s="28"/>
-      <c r="J247" s="28"/>
+      <c r="H247" s="27"/>
+      <c r="I247" s="27"/>
+      <c r="J247" s="27"/>
     </row>
     <row r="248" spans="3:10" ht="49.5">
       <c r="C248" s="19"/>
@@ -14907,12 +14908,12 @@
       <c r="F248" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G248" s="29" t="s">
+      <c r="G248" s="28" t="s">
         <v>1134</v>
       </c>
-      <c r="H248" s="29"/>
-      <c r="I248" s="29"/>
-      <c r="J248" s="29"/>
+      <c r="H248" s="28"/>
+      <c r="I248" s="28"/>
+      <c r="J248" s="28"/>
     </row>
     <row r="249" spans="3:10" ht="49.5">
       <c r="C249" s="19"/>
@@ -14925,12 +14926,12 @@
       <c r="F249" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G249" s="29" t="s">
+      <c r="G249" s="28" t="s">
         <v>1135</v>
       </c>
-      <c r="H249" s="29"/>
-      <c r="I249" s="29"/>
-      <c r="J249" s="29"/>
+      <c r="H249" s="28"/>
+      <c r="I249" s="28"/>
+      <c r="J249" s="28"/>
     </row>
     <row r="250" spans="3:10" ht="49.5">
       <c r="C250" s="19"/>
@@ -14943,12 +14944,12 @@
       <c r="F250" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G250" s="28" t="s">
+      <c r="G250" s="27" t="s">
         <v>1088</v>
       </c>
-      <c r="H250" s="28"/>
-      <c r="I250" s="28"/>
-      <c r="J250" s="28"/>
+      <c r="H250" s="27"/>
+      <c r="I250" s="27"/>
+      <c r="J250" s="27"/>
     </row>
     <row r="251" spans="3:10" ht="33">
       <c r="C251" s="4" t="s">
@@ -15107,12 +15108,12 @@
       <c r="F259" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G259" s="26" t="s">
+      <c r="G259" s="20" t="s">
         <v>1147</v>
       </c>
-      <c r="H259" s="26"/>
-      <c r="I259" s="26"/>
-      <c r="J259" s="26"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="20"/>
     </row>
     <row r="260" spans="3:10" ht="33">
       <c r="C260" s="6" t="s">
@@ -15145,12 +15146,12 @@
       <c r="F261" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G261" s="26" t="s">
+      <c r="G261" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="H261" s="26"/>
-      <c r="I261" s="26"/>
-      <c r="J261" s="26"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="20"/>
     </row>
     <row r="262" spans="3:10" ht="33">
       <c r="C262" s="6" t="s">
@@ -15210,7 +15211,7 @@
       <c r="C265" s="17" t="s">
         <v>1158</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="D265" s="29" t="s">
         <v>56</v>
       </c>
       <c r="E265" s="18" t="s">
@@ -15219,72 +15220,72 @@
       <c r="F265" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G265" s="26" t="s">
+      <c r="G265" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="H265" s="26"/>
-      <c r="I265" s="26"/>
-      <c r="J265" s="26"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
     </row>
     <row r="266" spans="3:10">
       <c r="C266" s="17"/>
-      <c r="D266" s="23"/>
+      <c r="D266" s="29"/>
       <c r="E266" s="18"/>
       <c r="F266" s="18"/>
-      <c r="G266" s="24" t="s">
+      <c r="G266" s="22" t="s">
         <v>1160</v>
       </c>
-      <c r="H266" s="24"/>
-      <c r="I266" s="24"/>
-      <c r="J266" s="24"/>
+      <c r="H266" s="22"/>
+      <c r="I266" s="22"/>
+      <c r="J266" s="22"/>
     </row>
     <row r="267" spans="3:10">
       <c r="C267" s="17"/>
-      <c r="D267" s="23"/>
+      <c r="D267" s="29"/>
       <c r="E267" s="18"/>
       <c r="F267" s="18"/>
-      <c r="G267" s="24" t="s">
+      <c r="G267" s="22" t="s">
         <v>1161</v>
       </c>
-      <c r="H267" s="24"/>
-      <c r="I267" s="24"/>
-      <c r="J267" s="24"/>
+      <c r="H267" s="22"/>
+      <c r="I267" s="22"/>
+      <c r="J267" s="22"/>
     </row>
     <row r="268" spans="3:10">
       <c r="C268" s="17"/>
-      <c r="D268" s="23"/>
+      <c r="D268" s="29"/>
       <c r="E268" s="18"/>
       <c r="F268" s="18"/>
-      <c r="G268" s="24" t="s">
+      <c r="G268" s="22" t="s">
         <v>1162</v>
       </c>
-      <c r="H268" s="24"/>
-      <c r="I268" s="24"/>
-      <c r="J268" s="24"/>
+      <c r="H268" s="22"/>
+      <c r="I268" s="22"/>
+      <c r="J268" s="22"/>
     </row>
     <row r="269" spans="3:10">
       <c r="C269" s="17"/>
-      <c r="D269" s="23"/>
+      <c r="D269" s="29"/>
       <c r="E269" s="18"/>
       <c r="F269" s="18"/>
-      <c r="G269" s="24" t="s">
+      <c r="G269" s="22" t="s">
         <v>1163</v>
       </c>
-      <c r="H269" s="24"/>
-      <c r="I269" s="24"/>
-      <c r="J269" s="24"/>
+      <c r="H269" s="22"/>
+      <c r="I269" s="22"/>
+      <c r="J269" s="22"/>
     </row>
     <row r="270" spans="3:10">
       <c r="C270" s="17"/>
-      <c r="D270" s="23"/>
+      <c r="D270" s="29"/>
       <c r="E270" s="18"/>
       <c r="F270" s="18"/>
-      <c r="G270" s="24" t="s">
+      <c r="G270" s="22" t="s">
         <v>1164</v>
       </c>
-      <c r="H270" s="24"/>
-      <c r="I270" s="24"/>
-      <c r="J270" s="24"/>
+      <c r="H270" s="22"/>
+      <c r="I270" s="22"/>
+      <c r="J270" s="22"/>
     </row>
     <row r="271" spans="3:10" ht="33">
       <c r="C271" s="6" t="s">
@@ -15299,12 +15300,12 @@
       <c r="F271" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G271" s="25" t="s">
+      <c r="G271" s="26" t="s">
         <v>1167</v>
       </c>
-      <c r="H271" s="25"/>
-      <c r="I271" s="25"/>
-      <c r="J271" s="25"/>
+      <c r="H271" s="26"/>
+      <c r="I271" s="26"/>
+      <c r="J271" s="26"/>
     </row>
     <row r="272" spans="3:10" ht="33">
       <c r="C272" s="4" t="s">
@@ -15319,12 +15320,12 @@
       <c r="F272" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="G272" s="26" t="s">
+      <c r="G272" s="20" t="s">
         <v>1170</v>
       </c>
-      <c r="H272" s="26"/>
-      <c r="I272" s="26"/>
-      <c r="J272" s="26"/>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="20"/>
     </row>
     <row r="273" spans="3:10" ht="33">
       <c r="C273" s="6" t="s">
@@ -15357,12 +15358,12 @@
       <c r="F274" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G274" s="27" t="s">
+      <c r="G274" s="21" t="s">
         <v>581</v>
       </c>
-      <c r="H274" s="27"/>
-      <c r="I274" s="27"/>
-      <c r="J274" s="27"/>
+      <c r="H274" s="21"/>
+      <c r="I274" s="21"/>
+      <c r="J274" s="21"/>
     </row>
     <row r="275" spans="3:10" ht="33">
       <c r="C275" s="6" t="s">
@@ -15458,7 +15459,7 @@
       <c r="C280" s="17" t="s">
         <v>1180</v>
       </c>
-      <c r="D280" s="23" t="s">
+      <c r="D280" s="29" t="s">
         <v>76</v>
       </c>
       <c r="E280" s="18" t="s">
@@ -15467,72 +15468,72 @@
       <c r="F280" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G280" s="26" t="s">
+      <c r="G280" s="20" t="s">
         <v>1181</v>
       </c>
-      <c r="H280" s="26"/>
-      <c r="I280" s="26"/>
-      <c r="J280" s="26"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="20"/>
     </row>
     <row r="281" spans="3:10">
       <c r="C281" s="17"/>
-      <c r="D281" s="23"/>
+      <c r="D281" s="29"/>
       <c r="E281" s="18"/>
       <c r="F281" s="18"/>
-      <c r="G281" s="24" t="s">
+      <c r="G281" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="H281" s="24"/>
-      <c r="I281" s="24"/>
-      <c r="J281" s="24"/>
+      <c r="H281" s="22"/>
+      <c r="I281" s="22"/>
+      <c r="J281" s="22"/>
     </row>
     <row r="282" spans="3:10">
       <c r="C282" s="17"/>
-      <c r="D282" s="23"/>
+      <c r="D282" s="29"/>
       <c r="E282" s="18"/>
       <c r="F282" s="18"/>
-      <c r="G282" s="24" t="s">
+      <c r="G282" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="H282" s="24"/>
-      <c r="I282" s="24"/>
-      <c r="J282" s="24"/>
+      <c r="H282" s="22"/>
+      <c r="I282" s="22"/>
+      <c r="J282" s="22"/>
     </row>
     <row r="283" spans="3:10">
       <c r="C283" s="17"/>
-      <c r="D283" s="23"/>
+      <c r="D283" s="29"/>
       <c r="E283" s="18"/>
       <c r="F283" s="18"/>
-      <c r="G283" s="24" t="s">
+      <c r="G283" s="22" t="s">
         <v>534</v>
       </c>
-      <c r="H283" s="24"/>
-      <c r="I283" s="24"/>
-      <c r="J283" s="24"/>
+      <c r="H283" s="22"/>
+      <c r="I283" s="22"/>
+      <c r="J283" s="22"/>
     </row>
     <row r="284" spans="3:10">
       <c r="C284" s="17"/>
-      <c r="D284" s="23"/>
+      <c r="D284" s="29"/>
       <c r="E284" s="18"/>
       <c r="F284" s="18"/>
-      <c r="G284" s="24" t="s">
+      <c r="G284" s="22" t="s">
         <v>971</v>
       </c>
-      <c r="H284" s="24"/>
-      <c r="I284" s="24"/>
-      <c r="J284" s="24"/>
+      <c r="H284" s="22"/>
+      <c r="I284" s="22"/>
+      <c r="J284" s="22"/>
     </row>
     <row r="285" spans="3:10">
       <c r="C285" s="17"/>
-      <c r="D285" s="23"/>
+      <c r="D285" s="29"/>
       <c r="E285" s="18"/>
       <c r="F285" s="18"/>
-      <c r="G285" s="24" t="s">
+      <c r="G285" s="22" t="s">
         <v>972</v>
       </c>
-      <c r="H285" s="24"/>
-      <c r="I285" s="24"/>
-      <c r="J285" s="24"/>
+      <c r="H285" s="22"/>
+      <c r="I285" s="22"/>
+      <c r="J285" s="22"/>
     </row>
     <row r="286" spans="3:10" ht="33">
       <c r="C286" s="6" t="s">
@@ -15646,91 +15647,91 @@
       <c r="C292" s="19" t="s">
         <v>1188</v>
       </c>
-      <c r="D292" s="20" t="s">
+      <c r="D292" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E292" s="21" t="s">
+      <c r="E292" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F292" s="21" t="s">
+      <c r="F292" s="25" t="s">
         <v>732</v>
       </c>
       <c r="G292" s="9" t="s">
         <v>1189</v>
       </c>
-      <c r="H292" s="22"/>
+      <c r="H292" s="23"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
     </row>
     <row r="293" spans="3:10" ht="21">
       <c r="C293" s="19"/>
-      <c r="D293" s="20"/>
-      <c r="E293" s="21"/>
-      <c r="F293" s="21"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="25"/>
+      <c r="F293" s="25"/>
       <c r="G293" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="H293" s="22"/>
+      <c r="H293" s="23"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
     </row>
     <row r="294" spans="3:10" ht="21">
       <c r="C294" s="19"/>
-      <c r="D294" s="20"/>
-      <c r="E294" s="21"/>
-      <c r="F294" s="21"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="25"/>
+      <c r="F294" s="25"/>
       <c r="G294" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="H294" s="22"/>
+      <c r="H294" s="23"/>
       <c r="I294" s="3"/>
       <c r="J294" s="3"/>
     </row>
     <row r="295" spans="3:10" ht="31.5">
       <c r="C295" s="19"/>
-      <c r="D295" s="20"/>
-      <c r="E295" s="21"/>
-      <c r="F295" s="21"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="25"/>
+      <c r="F295" s="25"/>
       <c r="G295" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="H295" s="22"/>
+      <c r="H295" s="23"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
     </row>
     <row r="296" spans="3:10" ht="21">
       <c r="C296" s="19"/>
-      <c r="D296" s="20"/>
-      <c r="E296" s="21"/>
-      <c r="F296" s="21"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="25"/>
+      <c r="F296" s="25"/>
       <c r="G296" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="H296" s="22"/>
+      <c r="H296" s="23"/>
       <c r="I296" s="3"/>
       <c r="J296" s="3"/>
     </row>
     <row r="297" spans="3:10">
       <c r="C297" s="19"/>
-      <c r="D297" s="20"/>
-      <c r="E297" s="21"/>
-      <c r="F297" s="21"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="25"/>
+      <c r="F297" s="25"/>
       <c r="G297" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="H297" s="22"/>
+      <c r="H297" s="23"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
     </row>
     <row r="298" spans="3:10" ht="31.5">
       <c r="C298" s="19"/>
-      <c r="D298" s="20"/>
-      <c r="E298" s="21"/>
-      <c r="F298" s="21"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="25"/>
+      <c r="F298" s="25"/>
       <c r="G298" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="H298" s="22"/>
+      <c r="H298" s="23"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
     </row>
@@ -15738,7 +15739,7 @@
       <c r="C299" s="17" t="s">
         <v>1190</v>
       </c>
-      <c r="D299" s="23" t="s">
+      <c r="D299" s="29" t="s">
         <v>310</v>
       </c>
       <c r="E299" s="18" t="s">
@@ -15747,48 +15748,48 @@
       <c r="F299" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G299" s="24" t="s">
+      <c r="G299" s="22" t="s">
         <v>1191</v>
       </c>
-      <c r="H299" s="24"/>
-      <c r="I299" s="24"/>
-      <c r="J299" s="24"/>
+      <c r="H299" s="22"/>
+      <c r="I299" s="22"/>
+      <c r="J299" s="22"/>
     </row>
     <row r="300" spans="3:10">
       <c r="C300" s="17"/>
-      <c r="D300" s="23"/>
+      <c r="D300" s="29"/>
       <c r="E300" s="18"/>
       <c r="F300" s="18"/>
-      <c r="G300" s="24" t="s">
+      <c r="G300" s="22" t="s">
         <v>1192</v>
       </c>
-      <c r="H300" s="24"/>
-      <c r="I300" s="24"/>
-      <c r="J300" s="24"/>
+      <c r="H300" s="22"/>
+      <c r="I300" s="22"/>
+      <c r="J300" s="22"/>
     </row>
     <row r="301" spans="3:10">
       <c r="C301" s="17"/>
-      <c r="D301" s="23"/>
+      <c r="D301" s="29"/>
       <c r="E301" s="18"/>
       <c r="F301" s="18"/>
-      <c r="G301" s="24" t="s">
+      <c r="G301" s="22" t="s">
         <v>1193</v>
       </c>
-      <c r="H301" s="24"/>
-      <c r="I301" s="24"/>
-      <c r="J301" s="24"/>
+      <c r="H301" s="22"/>
+      <c r="I301" s="22"/>
+      <c r="J301" s="22"/>
     </row>
     <row r="302" spans="3:10">
       <c r="C302" s="17"/>
-      <c r="D302" s="23"/>
+      <c r="D302" s="29"/>
       <c r="E302" s="18"/>
       <c r="F302" s="18"/>
-      <c r="G302" s="24" t="s">
+      <c r="G302" s="22" t="s">
         <v>1194</v>
       </c>
-      <c r="H302" s="24"/>
-      <c r="I302" s="24"/>
-      <c r="J302" s="24"/>
+      <c r="H302" s="22"/>
+      <c r="I302" s="22"/>
+      <c r="J302" s="22"/>
     </row>
     <row r="303" spans="3:10" ht="33">
       <c r="C303" s="6" t="s">
@@ -15803,12 +15804,12 @@
       <c r="F303" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G303" s="22" t="s">
+      <c r="G303" s="23" t="s">
         <v>1196</v>
       </c>
-      <c r="H303" s="22"/>
-      <c r="I303" s="22"/>
-      <c r="J303" s="22"/>
+      <c r="H303" s="23"/>
+      <c r="I303" s="23"/>
+      <c r="J303" s="23"/>
     </row>
     <row r="304" spans="3:10" ht="33">
       <c r="C304" s="4" t="s">
@@ -15832,39 +15833,39 @@
       <c r="C305" s="19" t="s">
         <v>1198</v>
       </c>
-      <c r="D305" s="20" t="s">
+      <c r="D305" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E305" s="21" t="s">
+      <c r="E305" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F305" s="21" t="s">
+      <c r="F305" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G305" s="22" t="s">
+      <c r="G305" s="23" t="s">
         <v>1199</v>
       </c>
-      <c r="H305" s="22"/>
-      <c r="I305" s="22"/>
-      <c r="J305" s="22"/>
+      <c r="H305" s="23"/>
+      <c r="I305" s="23"/>
+      <c r="J305" s="23"/>
     </row>
     <row r="306" spans="3:10">
       <c r="C306" s="19"/>
-      <c r="D306" s="20"/>
-      <c r="E306" s="21"/>
-      <c r="F306" s="21"/>
-      <c r="G306" s="22" t="s">
+      <c r="D306" s="24"/>
+      <c r="E306" s="25"/>
+      <c r="F306" s="25"/>
+      <c r="G306" s="23" t="s">
         <v>1200</v>
       </c>
-      <c r="H306" s="22"/>
-      <c r="I306" s="22"/>
-      <c r="J306" s="22"/>
+      <c r="H306" s="23"/>
+      <c r="I306" s="23"/>
+      <c r="J306" s="23"/>
     </row>
     <row r="307" spans="3:10">
       <c r="C307" s="17" t="s">
         <v>1201</v>
       </c>
-      <c r="D307" s="23" t="s">
+      <c r="D307" s="29" t="s">
         <v>88</v>
       </c>
       <c r="E307" s="18" t="s">
@@ -15873,68 +15874,68 @@
       <c r="F307" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G307" s="24" t="s">
+      <c r="G307" s="22" t="s">
         <v>1202</v>
       </c>
-      <c r="H307" s="24"/>
-      <c r="I307" s="24"/>
-      <c r="J307" s="24"/>
+      <c r="H307" s="22"/>
+      <c r="I307" s="22"/>
+      <c r="J307" s="22"/>
     </row>
     <row r="308" spans="3:10">
       <c r="C308" s="17"/>
-      <c r="D308" s="23"/>
+      <c r="D308" s="29"/>
       <c r="E308" s="18"/>
       <c r="F308" s="18"/>
-      <c r="G308" s="24" t="s">
+      <c r="G308" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="H308" s="24"/>
-      <c r="I308" s="24"/>
-      <c r="J308" s="24"/>
+      <c r="H308" s="22"/>
+      <c r="I308" s="22"/>
+      <c r="J308" s="22"/>
     </row>
     <row r="309" spans="3:10">
       <c r="C309" s="17"/>
-      <c r="D309" s="23"/>
+      <c r="D309" s="29"/>
       <c r="E309" s="18"/>
       <c r="F309" s="18"/>
-      <c r="G309" s="24" t="s">
+      <c r="G309" s="22" t="s">
         <v>1203</v>
       </c>
-      <c r="H309" s="24"/>
-      <c r="I309" s="24"/>
-      <c r="J309" s="24"/>
+      <c r="H309" s="22"/>
+      <c r="I309" s="22"/>
+      <c r="J309" s="22"/>
     </row>
     <row r="310" spans="3:10" ht="16.5" customHeight="1">
       <c r="C310" s="19" t="s">
         <v>1204</v>
       </c>
-      <c r="D310" s="20" t="s">
+      <c r="D310" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E310" s="21" t="s">
+      <c r="E310" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F310" s="21" t="s">
+      <c r="F310" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G310" s="22" t="s">
+      <c r="G310" s="23" t="s">
         <v>1202</v>
       </c>
-      <c r="H310" s="22"/>
-      <c r="I310" s="22"/>
-      <c r="J310" s="22"/>
+      <c r="H310" s="23"/>
+      <c r="I310" s="23"/>
+      <c r="J310" s="23"/>
     </row>
     <row r="311" spans="3:10">
       <c r="C311" s="19"/>
-      <c r="D311" s="20"/>
-      <c r="E311" s="21"/>
-      <c r="F311" s="21"/>
-      <c r="G311" s="22" t="s">
+      <c r="D311" s="24"/>
+      <c r="E311" s="25"/>
+      <c r="F311" s="25"/>
+      <c r="G311" s="23" t="s">
         <v>881</v>
       </c>
-      <c r="H311" s="22"/>
-      <c r="I311" s="22"/>
-      <c r="J311" s="22"/>
+      <c r="H311" s="23"/>
+      <c r="I311" s="23"/>
+      <c r="J311" s="23"/>
     </row>
     <row r="312" spans="3:10" ht="33">
       <c r="C312" s="4" t="s">
@@ -15967,18 +15968,18 @@
       <c r="F313" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="G313" s="25" t="s">
+      <c r="G313" s="26" t="s">
         <v>1208</v>
       </c>
-      <c r="H313" s="25"/>
-      <c r="I313" s="25"/>
-      <c r="J313" s="25"/>
+      <c r="H313" s="26"/>
+      <c r="I313" s="26"/>
+      <c r="J313" s="26"/>
     </row>
     <row r="314" spans="3:10">
       <c r="C314" s="17" t="s">
         <v>1209</v>
       </c>
-      <c r="D314" s="23" t="s">
+      <c r="D314" s="29" t="s">
         <v>97</v>
       </c>
       <c r="E314" s="18" t="s">
@@ -15987,122 +15988,122 @@
       <c r="F314" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G314" s="24" t="s">
+      <c r="G314" s="22" t="s">
         <v>1210</v>
       </c>
-      <c r="H314" s="24"/>
-      <c r="I314" s="24"/>
-      <c r="J314" s="24"/>
+      <c r="H314" s="22"/>
+      <c r="I314" s="22"/>
+      <c r="J314" s="22"/>
     </row>
     <row r="315" spans="3:10">
       <c r="C315" s="17"/>
-      <c r="D315" s="23"/>
+      <c r="D315" s="29"/>
       <c r="E315" s="18"/>
       <c r="F315" s="18"/>
-      <c r="G315" s="24" t="s">
+      <c r="G315" s="22" t="s">
         <v>1211</v>
       </c>
-      <c r="H315" s="24"/>
-      <c r="I315" s="24"/>
-      <c r="J315" s="24"/>
+      <c r="H315" s="22"/>
+      <c r="I315" s="22"/>
+      <c r="J315" s="22"/>
     </row>
     <row r="316" spans="3:10">
       <c r="C316" s="17"/>
-      <c r="D316" s="23"/>
+      <c r="D316" s="29"/>
       <c r="E316" s="18"/>
       <c r="F316" s="18"/>
-      <c r="G316" s="24" t="s">
+      <c r="G316" s="22" t="s">
         <v>1212</v>
       </c>
-      <c r="H316" s="24"/>
-      <c r="I316" s="24"/>
-      <c r="J316" s="24"/>
+      <c r="H316" s="22"/>
+      <c r="I316" s="22"/>
+      <c r="J316" s="22"/>
     </row>
     <row r="317" spans="3:10">
       <c r="C317" s="17"/>
-      <c r="D317" s="23"/>
+      <c r="D317" s="29"/>
       <c r="E317" s="18"/>
       <c r="F317" s="18"/>
-      <c r="G317" s="24" t="s">
+      <c r="G317" s="22" t="s">
         <v>1213</v>
       </c>
-      <c r="H317" s="24"/>
-      <c r="I317" s="24"/>
-      <c r="J317" s="24"/>
+      <c r="H317" s="22"/>
+      <c r="I317" s="22"/>
+      <c r="J317" s="22"/>
     </row>
     <row r="318" spans="3:10">
       <c r="C318" s="19" t="s">
         <v>1214</v>
       </c>
-      <c r="D318" s="20" t="s">
+      <c r="D318" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E318" s="21" t="s">
+      <c r="E318" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F318" s="21" t="s">
+      <c r="F318" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G318" s="22" t="s">
+      <c r="G318" s="23" t="s">
         <v>1215</v>
       </c>
-      <c r="H318" s="22"/>
-      <c r="I318" s="22"/>
-      <c r="J318" s="22"/>
+      <c r="H318" s="23"/>
+      <c r="I318" s="23"/>
+      <c r="J318" s="23"/>
     </row>
     <row r="319" spans="3:10">
       <c r="C319" s="19"/>
-      <c r="D319" s="20"/>
-      <c r="E319" s="21"/>
-      <c r="F319" s="21"/>
-      <c r="G319" s="22" t="s">
+      <c r="D319" s="24"/>
+      <c r="E319" s="25"/>
+      <c r="F319" s="25"/>
+      <c r="G319" s="23" t="s">
         <v>1216</v>
       </c>
-      <c r="H319" s="22"/>
-      <c r="I319" s="22"/>
-      <c r="J319" s="22"/>
+      <c r="H319" s="23"/>
+      <c r="I319" s="23"/>
+      <c r="J319" s="23"/>
     </row>
     <row r="320" spans="3:10">
       <c r="C320" s="19"/>
-      <c r="D320" s="20"/>
-      <c r="E320" s="21"/>
-      <c r="F320" s="21"/>
-      <c r="G320" s="22" t="s">
+      <c r="D320" s="24"/>
+      <c r="E320" s="25"/>
+      <c r="F320" s="25"/>
+      <c r="G320" s="23" t="s">
         <v>1217</v>
       </c>
-      <c r="H320" s="22"/>
-      <c r="I320" s="22"/>
-      <c r="J320" s="22"/>
+      <c r="H320" s="23"/>
+      <c r="I320" s="23"/>
+      <c r="J320" s="23"/>
     </row>
     <row r="321" spans="3:10">
       <c r="C321" s="19"/>
-      <c r="D321" s="20"/>
-      <c r="E321" s="21"/>
-      <c r="F321" s="21"/>
-      <c r="G321" s="22" t="s">
+      <c r="D321" s="24"/>
+      <c r="E321" s="25"/>
+      <c r="F321" s="25"/>
+      <c r="G321" s="23" t="s">
         <v>1218</v>
       </c>
-      <c r="H321" s="22"/>
-      <c r="I321" s="22"/>
-      <c r="J321" s="22"/>
+      <c r="H321" s="23"/>
+      <c r="I321" s="23"/>
+      <c r="J321" s="23"/>
     </row>
     <row r="322" spans="3:10">
       <c r="C322" s="19"/>
-      <c r="D322" s="20"/>
-      <c r="E322" s="21"/>
-      <c r="F322" s="21"/>
-      <c r="G322" s="22" t="s">
+      <c r="D322" s="24"/>
+      <c r="E322" s="25"/>
+      <c r="F322" s="25"/>
+      <c r="G322" s="23" t="s">
         <v>1219</v>
       </c>
-      <c r="H322" s="22"/>
-      <c r="I322" s="22"/>
-      <c r="J322" s="22"/>
+      <c r="H322" s="23"/>
+      <c r="I322" s="23"/>
+      <c r="J322" s="23"/>
     </row>
     <row r="323" spans="3:10">
       <c r="C323" s="17" t="s">
         <v>1220</v>
       </c>
-      <c r="D323" s="23" t="s">
+      <c r="D323" s="29" t="s">
         <v>100</v>
       </c>
       <c r="E323" s="18" t="s">
@@ -16111,86 +16112,86 @@
       <c r="F323" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G323" s="24" t="s">
+      <c r="G323" s="22" t="s">
         <v>1199</v>
       </c>
-      <c r="H323" s="24"/>
-      <c r="I323" s="24"/>
-      <c r="J323" s="24"/>
+      <c r="H323" s="22"/>
+      <c r="I323" s="22"/>
+      <c r="J323" s="22"/>
     </row>
     <row r="324" spans="3:10">
       <c r="C324" s="17"/>
-      <c r="D324" s="23"/>
+      <c r="D324" s="29"/>
       <c r="E324" s="18"/>
       <c r="F324" s="18"/>
-      <c r="G324" s="24" t="s">
+      <c r="G324" s="22" t="s">
         <v>1221</v>
       </c>
-      <c r="H324" s="24"/>
-      <c r="I324" s="24"/>
-      <c r="J324" s="24"/>
+      <c r="H324" s="22"/>
+      <c r="I324" s="22"/>
+      <c r="J324" s="22"/>
     </row>
     <row r="325" spans="3:10">
       <c r="C325" s="17"/>
-      <c r="D325" s="23"/>
+      <c r="D325" s="29"/>
       <c r="E325" s="18"/>
       <c r="F325" s="18"/>
-      <c r="G325" s="24" t="s">
+      <c r="G325" s="22" t="s">
         <v>1222</v>
       </c>
-      <c r="H325" s="24"/>
-      <c r="I325" s="24"/>
-      <c r="J325" s="24"/>
+      <c r="H325" s="22"/>
+      <c r="I325" s="22"/>
+      <c r="J325" s="22"/>
     </row>
     <row r="326" spans="3:10">
       <c r="C326" s="19" t="s">
         <v>1223</v>
       </c>
-      <c r="D326" s="20" t="s">
+      <c r="D326" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E326" s="21" t="s">
+      <c r="E326" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F326" s="21" t="s">
+      <c r="F326" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="G326" s="22" t="s">
+      <c r="G326" s="23" t="s">
         <v>1199</v>
       </c>
-      <c r="H326" s="22"/>
-      <c r="I326" s="22"/>
-      <c r="J326" s="22"/>
+      <c r="H326" s="23"/>
+      <c r="I326" s="23"/>
+      <c r="J326" s="23"/>
     </row>
     <row r="327" spans="3:10">
       <c r="C327" s="19"/>
-      <c r="D327" s="20"/>
-      <c r="E327" s="21"/>
-      <c r="F327" s="21"/>
-      <c r="G327" s="22" t="s">
+      <c r="D327" s="24"/>
+      <c r="E327" s="25"/>
+      <c r="F327" s="25"/>
+      <c r="G327" s="23" t="s">
         <v>1221</v>
       </c>
-      <c r="H327" s="22"/>
-      <c r="I327" s="22"/>
-      <c r="J327" s="22"/>
+      <c r="H327" s="23"/>
+      <c r="I327" s="23"/>
+      <c r="J327" s="23"/>
     </row>
     <row r="328" spans="3:10">
       <c r="C328" s="19"/>
-      <c r="D328" s="20"/>
-      <c r="E328" s="21"/>
-      <c r="F328" s="21"/>
-      <c r="G328" s="22" t="s">
+      <c r="D328" s="24"/>
+      <c r="E328" s="25"/>
+      <c r="F328" s="25"/>
+      <c r="G328" s="23" t="s">
         <v>1222</v>
       </c>
-      <c r="H328" s="22"/>
-      <c r="I328" s="22"/>
-      <c r="J328" s="22"/>
+      <c r="H328" s="23"/>
+      <c r="I328" s="23"/>
+      <c r="J328" s="23"/>
     </row>
     <row r="329" spans="3:10">
       <c r="C329" s="17" t="s">
         <v>1224</v>
       </c>
-      <c r="D329" s="23" t="s">
+      <c r="D329" s="29" t="s">
         <v>104</v>
       </c>
       <c r="E329" s="18" t="s">
@@ -16199,36 +16200,36 @@
       <c r="F329" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G329" s="24" t="s">
+      <c r="G329" s="22" t="s">
         <v>1199</v>
       </c>
-      <c r="H329" s="24"/>
-      <c r="I329" s="24"/>
-      <c r="J329" s="24"/>
+      <c r="H329" s="22"/>
+      <c r="I329" s="22"/>
+      <c r="J329" s="22"/>
     </row>
     <row r="330" spans="3:10">
       <c r="C330" s="17"/>
-      <c r="D330" s="23"/>
+      <c r="D330" s="29"/>
       <c r="E330" s="18"/>
       <c r="F330" s="18"/>
-      <c r="G330" s="24" t="s">
+      <c r="G330" s="22" t="s">
         <v>1225</v>
       </c>
-      <c r="H330" s="24"/>
-      <c r="I330" s="24"/>
-      <c r="J330" s="24"/>
+      <c r="H330" s="22"/>
+      <c r="I330" s="22"/>
+      <c r="J330" s="22"/>
     </row>
     <row r="331" spans="3:10">
       <c r="C331" s="17"/>
-      <c r="D331" s="23"/>
+      <c r="D331" s="29"/>
       <c r="E331" s="18"/>
       <c r="F331" s="18"/>
-      <c r="G331" s="24" t="s">
+      <c r="G331" s="22" t="s">
         <v>1226</v>
       </c>
-      <c r="H331" s="24"/>
-      <c r="I331" s="24"/>
-      <c r="J331" s="24"/>
+      <c r="H331" s="22"/>
+      <c r="I331" s="22"/>
+      <c r="J331" s="22"/>
     </row>
     <row r="332" spans="3:10" ht="49.5">
       <c r="C332" s="6" t="s">
@@ -16252,7 +16253,7 @@
       <c r="C333" s="17" t="s">
         <v>1228</v>
       </c>
-      <c r="D333" s="23" t="s">
+      <c r="D333" s="29" t="s">
         <v>106</v>
       </c>
       <c r="E333" s="18" t="s">
@@ -16261,48 +16262,48 @@
       <c r="F333" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="G333" s="24" t="s">
+      <c r="G333" s="22" t="s">
         <v>639</v>
       </c>
-      <c r="H333" s="24"/>
-      <c r="I333" s="24"/>
-      <c r="J333" s="24"/>
+      <c r="H333" s="22"/>
+      <c r="I333" s="22"/>
+      <c r="J333" s="22"/>
     </row>
     <row r="334" spans="3:10">
       <c r="C334" s="17"/>
-      <c r="D334" s="23"/>
+      <c r="D334" s="29"/>
       <c r="E334" s="18"/>
       <c r="F334" s="18"/>
-      <c r="G334" s="24" t="s">
+      <c r="G334" s="22" t="s">
         <v>1229</v>
       </c>
-      <c r="H334" s="24"/>
-      <c r="I334" s="24"/>
-      <c r="J334" s="24"/>
+      <c r="H334" s="22"/>
+      <c r="I334" s="22"/>
+      <c r="J334" s="22"/>
     </row>
     <row r="335" spans="3:10">
       <c r="C335" s="17"/>
-      <c r="D335" s="23"/>
+      <c r="D335" s="29"/>
       <c r="E335" s="18"/>
       <c r="F335" s="18"/>
-      <c r="G335" s="24" t="s">
+      <c r="G335" s="22" t="s">
         <v>1230</v>
       </c>
-      <c r="H335" s="24"/>
-      <c r="I335" s="24"/>
-      <c r="J335" s="24"/>
+      <c r="H335" s="22"/>
+      <c r="I335" s="22"/>
+      <c r="J335" s="22"/>
     </row>
     <row r="336" spans="3:10">
       <c r="C336" s="17"/>
-      <c r="D336" s="23"/>
+      <c r="D336" s="29"/>
       <c r="E336" s="18"/>
       <c r="F336" s="18"/>
-      <c r="G336" s="24" t="s">
+      <c r="G336" s="22" t="s">
         <v>1231</v>
       </c>
-      <c r="H336" s="24"/>
-      <c r="I336" s="24"/>
-      <c r="J336" s="24"/>
+      <c r="H336" s="22"/>
+      <c r="I336" s="22"/>
+      <c r="J336" s="22"/>
     </row>
     <row r="337" spans="3:10" ht="33">
       <c r="C337" s="6" t="s">
@@ -16324,6 +16325,381 @@
     </row>
   </sheetData>
   <mergeCells count="399">
+    <mergeCell ref="G337:J337"/>
+    <mergeCell ref="G332:J332"/>
+    <mergeCell ref="C333:C336"/>
+    <mergeCell ref="D333:D336"/>
+    <mergeCell ref="E333:E336"/>
+    <mergeCell ref="F333:F336"/>
+    <mergeCell ref="G333:J333"/>
+    <mergeCell ref="G334:J334"/>
+    <mergeCell ref="G335:J335"/>
+    <mergeCell ref="G336:J336"/>
+    <mergeCell ref="C329:C331"/>
+    <mergeCell ref="D329:D331"/>
+    <mergeCell ref="E329:E331"/>
+    <mergeCell ref="F329:F331"/>
+    <mergeCell ref="G329:J329"/>
+    <mergeCell ref="G330:J330"/>
+    <mergeCell ref="G331:J331"/>
+    <mergeCell ref="C326:C328"/>
+    <mergeCell ref="D326:D328"/>
+    <mergeCell ref="E326:E328"/>
+    <mergeCell ref="F326:F328"/>
+    <mergeCell ref="G326:J326"/>
+    <mergeCell ref="G327:J327"/>
+    <mergeCell ref="G328:J328"/>
+    <mergeCell ref="C323:C325"/>
+    <mergeCell ref="D323:D325"/>
+    <mergeCell ref="E323:E325"/>
+    <mergeCell ref="F323:F325"/>
+    <mergeCell ref="G323:J323"/>
+    <mergeCell ref="G324:J324"/>
+    <mergeCell ref="G325:J325"/>
+    <mergeCell ref="C318:C322"/>
+    <mergeCell ref="D318:D322"/>
+    <mergeCell ref="E318:E322"/>
+    <mergeCell ref="F318:F322"/>
+    <mergeCell ref="G318:J318"/>
+    <mergeCell ref="G319:J319"/>
+    <mergeCell ref="G320:J320"/>
+    <mergeCell ref="G321:J321"/>
+    <mergeCell ref="G322:J322"/>
+    <mergeCell ref="G312:J312"/>
+    <mergeCell ref="G313:J313"/>
+    <mergeCell ref="C314:C317"/>
+    <mergeCell ref="D314:D317"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="F314:F317"/>
+    <mergeCell ref="G314:J314"/>
+    <mergeCell ref="G315:J315"/>
+    <mergeCell ref="G316:J316"/>
+    <mergeCell ref="G317:J317"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="D310:D311"/>
+    <mergeCell ref="E310:E311"/>
+    <mergeCell ref="F310:F311"/>
+    <mergeCell ref="G310:J310"/>
+    <mergeCell ref="G311:J311"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="E307:E309"/>
+    <mergeCell ref="F307:F309"/>
+    <mergeCell ref="G307:J307"/>
+    <mergeCell ref="G308:J308"/>
+    <mergeCell ref="G309:J309"/>
+    <mergeCell ref="G303:J303"/>
+    <mergeCell ref="G304:J304"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="D305:D306"/>
+    <mergeCell ref="E305:E306"/>
+    <mergeCell ref="F305:F306"/>
+    <mergeCell ref="G305:J305"/>
+    <mergeCell ref="G306:J306"/>
+    <mergeCell ref="C299:C302"/>
+    <mergeCell ref="D299:D302"/>
+    <mergeCell ref="E299:E302"/>
+    <mergeCell ref="F299:F302"/>
+    <mergeCell ref="G299:J299"/>
+    <mergeCell ref="G300:J300"/>
+    <mergeCell ref="G301:J301"/>
+    <mergeCell ref="G302:J302"/>
+    <mergeCell ref="G290:J290"/>
+    <mergeCell ref="G291:J291"/>
+    <mergeCell ref="C292:C298"/>
+    <mergeCell ref="D292:D298"/>
+    <mergeCell ref="E292:E298"/>
+    <mergeCell ref="F292:F298"/>
+    <mergeCell ref="G284:J284"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="G286:J286"/>
+    <mergeCell ref="G287:J287"/>
+    <mergeCell ref="G288:J288"/>
+    <mergeCell ref="G289:J289"/>
+    <mergeCell ref="G278:J278"/>
+    <mergeCell ref="G279:J279"/>
+    <mergeCell ref="C280:C285"/>
+    <mergeCell ref="D280:D285"/>
+    <mergeCell ref="E280:E285"/>
+    <mergeCell ref="F280:F285"/>
+    <mergeCell ref="G280:J280"/>
+    <mergeCell ref="G281:J281"/>
+    <mergeCell ref="G282:J282"/>
+    <mergeCell ref="G283:J283"/>
+    <mergeCell ref="G272:J272"/>
+    <mergeCell ref="G273:J273"/>
+    <mergeCell ref="G274:J274"/>
+    <mergeCell ref="G275:J275"/>
+    <mergeCell ref="G276:J276"/>
+    <mergeCell ref="G277:J277"/>
+    <mergeCell ref="G266:J266"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="G268:J268"/>
+    <mergeCell ref="G269:J269"/>
+    <mergeCell ref="G270:J270"/>
+    <mergeCell ref="G271:J271"/>
+    <mergeCell ref="G260:J260"/>
+    <mergeCell ref="G261:J261"/>
+    <mergeCell ref="G262:J262"/>
+    <mergeCell ref="G263:J263"/>
+    <mergeCell ref="G264:J264"/>
+    <mergeCell ref="C265:C270"/>
+    <mergeCell ref="D265:D270"/>
+    <mergeCell ref="E265:E270"/>
+    <mergeCell ref="F265:F270"/>
+    <mergeCell ref="G265:J265"/>
+    <mergeCell ref="G254:J254"/>
+    <mergeCell ref="G255:J255"/>
+    <mergeCell ref="G256:J256"/>
+    <mergeCell ref="G257:J257"/>
+    <mergeCell ref="G258:J258"/>
+    <mergeCell ref="G259:J259"/>
+    <mergeCell ref="G248:J248"/>
+    <mergeCell ref="G249:J249"/>
+    <mergeCell ref="G250:J250"/>
+    <mergeCell ref="G251:J251"/>
+    <mergeCell ref="G252:J252"/>
+    <mergeCell ref="G253:J253"/>
+    <mergeCell ref="G242:J242"/>
+    <mergeCell ref="G243:J243"/>
+    <mergeCell ref="G244:J244"/>
+    <mergeCell ref="G245:J245"/>
+    <mergeCell ref="G246:J246"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G236:J236"/>
+    <mergeCell ref="G237:J237"/>
+    <mergeCell ref="G238:J238"/>
+    <mergeCell ref="G239:J239"/>
+    <mergeCell ref="G240:J240"/>
+    <mergeCell ref="G241:J241"/>
+    <mergeCell ref="G230:J230"/>
+    <mergeCell ref="G231:J231"/>
+    <mergeCell ref="G232:J232"/>
+    <mergeCell ref="G233:J233"/>
+    <mergeCell ref="G234:J234"/>
+    <mergeCell ref="G235:J235"/>
+    <mergeCell ref="G224:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="G227:J227"/>
+    <mergeCell ref="G228:J228"/>
+    <mergeCell ref="G229:J229"/>
+    <mergeCell ref="G218:J218"/>
+    <mergeCell ref="G219:J219"/>
+    <mergeCell ref="G220:J220"/>
+    <mergeCell ref="G221:J221"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J223"/>
+    <mergeCell ref="G212:J212"/>
+    <mergeCell ref="G213:J213"/>
+    <mergeCell ref="G214:J214"/>
+    <mergeCell ref="G215:J215"/>
+    <mergeCell ref="G216:J216"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="G206:J206"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="G208:J208"/>
+    <mergeCell ref="G209:J209"/>
+    <mergeCell ref="G210:J210"/>
+    <mergeCell ref="G211:J211"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J202"/>
+    <mergeCell ref="G203:J203"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="G194:J194"/>
+    <mergeCell ref="G195:J195"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="G197:J197"/>
+    <mergeCell ref="G198:J198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G188:J188"/>
+    <mergeCell ref="G189:J189"/>
+    <mergeCell ref="G190:J190"/>
+    <mergeCell ref="G191:J191"/>
+    <mergeCell ref="G192:J192"/>
+    <mergeCell ref="G193:J193"/>
+    <mergeCell ref="C177:C250"/>
+    <mergeCell ref="G177:J177"/>
+    <mergeCell ref="G178:J178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J161"/>
+    <mergeCell ref="G162:J162"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="C164:C172"/>
+    <mergeCell ref="D164:D172"/>
+    <mergeCell ref="E164:E172"/>
+    <mergeCell ref="F164:F172"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="G182:J182"/>
+    <mergeCell ref="G183:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="G186:J186"/>
+    <mergeCell ref="G187:J187"/>
+    <mergeCell ref="G173:J173"/>
+    <mergeCell ref="G174:J174"/>
+    <mergeCell ref="G175:J175"/>
+    <mergeCell ref="G154:J154"/>
+    <mergeCell ref="C155:C159"/>
+    <mergeCell ref="D155:D159"/>
+    <mergeCell ref="E155:E159"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="G156:J156"/>
+    <mergeCell ref="G157:J157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="G148:J148"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="E149:E153"/>
+    <mergeCell ref="F149:F153"/>
+    <mergeCell ref="G149:J149"/>
+    <mergeCell ref="G150:J150"/>
+    <mergeCell ref="G151:J151"/>
+    <mergeCell ref="G152:J152"/>
+    <mergeCell ref="G153:J153"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="G144:J144"/>
+    <mergeCell ref="G145:J145"/>
+    <mergeCell ref="G146:J146"/>
+    <mergeCell ref="G147:J147"/>
+    <mergeCell ref="G132:J132"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="D133:D140"/>
+    <mergeCell ref="E133:E140"/>
+    <mergeCell ref="F133:F140"/>
+    <mergeCell ref="G141:J141"/>
+    <mergeCell ref="G126:J126"/>
+    <mergeCell ref="G127:J127"/>
+    <mergeCell ref="G128:J128"/>
+    <mergeCell ref="G129:J129"/>
+    <mergeCell ref="G130:J130"/>
+    <mergeCell ref="G131:J131"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G113:J113"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="G115:J115"/>
+    <mergeCell ref="G116:J116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="G107:J107"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="G109:J109"/>
+    <mergeCell ref="G110:J110"/>
+    <mergeCell ref="G111:J111"/>
+    <mergeCell ref="G112:J112"/>
+    <mergeCell ref="C101:C109"/>
+    <mergeCell ref="D101:D109"/>
+    <mergeCell ref="E101:E109"/>
+    <mergeCell ref="F101:F109"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="G103:J103"/>
+    <mergeCell ref="G104:J104"/>
+    <mergeCell ref="G105:J105"/>
+    <mergeCell ref="G106:J106"/>
+    <mergeCell ref="G95:J95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J99"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="C83:C93"/>
+    <mergeCell ref="D83:D93"/>
+    <mergeCell ref="E83:E93"/>
+    <mergeCell ref="F83:F93"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="E66:E76"/>
+    <mergeCell ref="F66:F76"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="D61:D65"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="F61:F65"/>
+    <mergeCell ref="G61:J61"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="G64:J64"/>
+    <mergeCell ref="G65:J65"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="G81:J81"/>
     <mergeCell ref="G82:J82"/>
     <mergeCell ref="G12:J12"/>
@@ -16348,381 +16724,6 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="C66:C76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="E66:E76"/>
-    <mergeCell ref="F66:F76"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="C61:C65"/>
-    <mergeCell ref="D61:D65"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="F61:F65"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G64:J64"/>
-    <mergeCell ref="G65:J65"/>
-    <mergeCell ref="G95:J95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J99"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="C83:C93"/>
-    <mergeCell ref="D83:D93"/>
-    <mergeCell ref="E83:E93"/>
-    <mergeCell ref="F83:F93"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G107:J107"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="G109:J109"/>
-    <mergeCell ref="G110:J110"/>
-    <mergeCell ref="G111:J111"/>
-    <mergeCell ref="G112:J112"/>
-    <mergeCell ref="C101:C109"/>
-    <mergeCell ref="D101:D109"/>
-    <mergeCell ref="E101:E109"/>
-    <mergeCell ref="F101:F109"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="G103:J103"/>
-    <mergeCell ref="G104:J104"/>
-    <mergeCell ref="G105:J105"/>
-    <mergeCell ref="G106:J106"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G113:J113"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="G115:J115"/>
-    <mergeCell ref="G116:J116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="G126:J126"/>
-    <mergeCell ref="G127:J127"/>
-    <mergeCell ref="G128:J128"/>
-    <mergeCell ref="G129:J129"/>
-    <mergeCell ref="G130:J130"/>
-    <mergeCell ref="G131:J131"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J120"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="G144:J144"/>
-    <mergeCell ref="G145:J145"/>
-    <mergeCell ref="G146:J146"/>
-    <mergeCell ref="G147:J147"/>
-    <mergeCell ref="G132:J132"/>
-    <mergeCell ref="C133:C140"/>
-    <mergeCell ref="D133:D140"/>
-    <mergeCell ref="E133:E140"/>
-    <mergeCell ref="F133:F140"/>
-    <mergeCell ref="G141:J141"/>
-    <mergeCell ref="G148:J148"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="D149:D153"/>
-    <mergeCell ref="E149:E153"/>
-    <mergeCell ref="F149:F153"/>
-    <mergeCell ref="G149:J149"/>
-    <mergeCell ref="G150:J150"/>
-    <mergeCell ref="G151:J151"/>
-    <mergeCell ref="G152:J152"/>
-    <mergeCell ref="G153:J153"/>
-    <mergeCell ref="G154:J154"/>
-    <mergeCell ref="C155:C159"/>
-    <mergeCell ref="D155:D159"/>
-    <mergeCell ref="E155:E159"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="G156:J156"/>
-    <mergeCell ref="G157:J157"/>
-    <mergeCell ref="G158:J158"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="C177:C250"/>
-    <mergeCell ref="G177:J177"/>
-    <mergeCell ref="G178:J178"/>
-    <mergeCell ref="G179:J179"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="G161:J161"/>
-    <mergeCell ref="G162:J162"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="C164:C172"/>
-    <mergeCell ref="D164:D172"/>
-    <mergeCell ref="E164:E172"/>
-    <mergeCell ref="F164:F172"/>
-    <mergeCell ref="G164:J164"/>
-    <mergeCell ref="G182:J182"/>
-    <mergeCell ref="G183:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="G186:J186"/>
-    <mergeCell ref="G187:J187"/>
-    <mergeCell ref="G173:J173"/>
-    <mergeCell ref="G174:J174"/>
-    <mergeCell ref="G175:J175"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="G194:J194"/>
-    <mergeCell ref="G195:J195"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="G197:J197"/>
-    <mergeCell ref="G198:J198"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="G188:J188"/>
-    <mergeCell ref="G189:J189"/>
-    <mergeCell ref="G190:J190"/>
-    <mergeCell ref="G191:J191"/>
-    <mergeCell ref="G192:J192"/>
-    <mergeCell ref="G193:J193"/>
-    <mergeCell ref="G206:J206"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="G208:J208"/>
-    <mergeCell ref="G209:J209"/>
-    <mergeCell ref="G210:J210"/>
-    <mergeCell ref="G211:J211"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J202"/>
-    <mergeCell ref="G203:J203"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="G218:J218"/>
-    <mergeCell ref="G219:J219"/>
-    <mergeCell ref="G220:J220"/>
-    <mergeCell ref="G221:J221"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="G223:J223"/>
-    <mergeCell ref="G212:J212"/>
-    <mergeCell ref="G213:J213"/>
-    <mergeCell ref="G214:J214"/>
-    <mergeCell ref="G215:J215"/>
-    <mergeCell ref="G216:J216"/>
-    <mergeCell ref="G217:J217"/>
-    <mergeCell ref="G230:J230"/>
-    <mergeCell ref="G231:J231"/>
-    <mergeCell ref="G232:J232"/>
-    <mergeCell ref="G233:J233"/>
-    <mergeCell ref="G234:J234"/>
-    <mergeCell ref="G235:J235"/>
-    <mergeCell ref="G224:J224"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="G227:J227"/>
-    <mergeCell ref="G228:J228"/>
-    <mergeCell ref="G229:J229"/>
-    <mergeCell ref="G242:J242"/>
-    <mergeCell ref="G243:J243"/>
-    <mergeCell ref="G244:J244"/>
-    <mergeCell ref="G245:J245"/>
-    <mergeCell ref="G246:J246"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="G236:J236"/>
-    <mergeCell ref="G237:J237"/>
-    <mergeCell ref="G238:J238"/>
-    <mergeCell ref="G239:J239"/>
-    <mergeCell ref="G240:J240"/>
-    <mergeCell ref="G241:J241"/>
-    <mergeCell ref="G254:J254"/>
-    <mergeCell ref="G255:J255"/>
-    <mergeCell ref="G256:J256"/>
-    <mergeCell ref="G257:J257"/>
-    <mergeCell ref="G258:J258"/>
-    <mergeCell ref="G259:J259"/>
-    <mergeCell ref="G248:J248"/>
-    <mergeCell ref="G249:J249"/>
-    <mergeCell ref="G250:J250"/>
-    <mergeCell ref="G251:J251"/>
-    <mergeCell ref="G252:J252"/>
-    <mergeCell ref="G253:J253"/>
-    <mergeCell ref="G260:J260"/>
-    <mergeCell ref="G261:J261"/>
-    <mergeCell ref="G262:J262"/>
-    <mergeCell ref="G263:J263"/>
-    <mergeCell ref="G264:J264"/>
-    <mergeCell ref="C265:C270"/>
-    <mergeCell ref="D265:D270"/>
-    <mergeCell ref="E265:E270"/>
-    <mergeCell ref="F265:F270"/>
-    <mergeCell ref="G265:J265"/>
-    <mergeCell ref="G272:J272"/>
-    <mergeCell ref="G273:J273"/>
-    <mergeCell ref="G274:J274"/>
-    <mergeCell ref="G275:J275"/>
-    <mergeCell ref="G276:J276"/>
-    <mergeCell ref="G277:J277"/>
-    <mergeCell ref="G266:J266"/>
-    <mergeCell ref="G267:J267"/>
-    <mergeCell ref="G268:J268"/>
-    <mergeCell ref="G269:J269"/>
-    <mergeCell ref="G270:J270"/>
-    <mergeCell ref="G271:J271"/>
-    <mergeCell ref="G278:J278"/>
-    <mergeCell ref="G279:J279"/>
-    <mergeCell ref="C280:C285"/>
-    <mergeCell ref="D280:D285"/>
-    <mergeCell ref="E280:E285"/>
-    <mergeCell ref="F280:F285"/>
-    <mergeCell ref="G280:J280"/>
-    <mergeCell ref="G281:J281"/>
-    <mergeCell ref="G282:J282"/>
-    <mergeCell ref="G283:J283"/>
-    <mergeCell ref="G290:J290"/>
-    <mergeCell ref="G291:J291"/>
-    <mergeCell ref="C292:C298"/>
-    <mergeCell ref="D292:D298"/>
-    <mergeCell ref="E292:E298"/>
-    <mergeCell ref="F292:F298"/>
-    <mergeCell ref="G284:J284"/>
-    <mergeCell ref="G285:J285"/>
-    <mergeCell ref="G286:J286"/>
-    <mergeCell ref="G287:J287"/>
-    <mergeCell ref="G288:J288"/>
-    <mergeCell ref="G289:J289"/>
-    <mergeCell ref="G303:J303"/>
-    <mergeCell ref="G304:J304"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="D305:D306"/>
-    <mergeCell ref="E305:E306"/>
-    <mergeCell ref="F305:F306"/>
-    <mergeCell ref="G305:J305"/>
-    <mergeCell ref="G306:J306"/>
-    <mergeCell ref="C299:C302"/>
-    <mergeCell ref="D299:D302"/>
-    <mergeCell ref="E299:E302"/>
-    <mergeCell ref="F299:F302"/>
-    <mergeCell ref="G299:J299"/>
-    <mergeCell ref="G300:J300"/>
-    <mergeCell ref="G301:J301"/>
-    <mergeCell ref="G302:J302"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="D310:D311"/>
-    <mergeCell ref="E310:E311"/>
-    <mergeCell ref="F310:F311"/>
-    <mergeCell ref="G310:J310"/>
-    <mergeCell ref="G311:J311"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="E307:E309"/>
-    <mergeCell ref="F307:F309"/>
-    <mergeCell ref="G307:J307"/>
-    <mergeCell ref="G308:J308"/>
-    <mergeCell ref="G309:J309"/>
-    <mergeCell ref="G312:J312"/>
-    <mergeCell ref="G313:J313"/>
-    <mergeCell ref="C314:C317"/>
-    <mergeCell ref="D314:D317"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="F314:F317"/>
-    <mergeCell ref="G314:J314"/>
-    <mergeCell ref="G315:J315"/>
-    <mergeCell ref="G316:J316"/>
-    <mergeCell ref="G317:J317"/>
-    <mergeCell ref="C323:C325"/>
-    <mergeCell ref="D323:D325"/>
-    <mergeCell ref="E323:E325"/>
-    <mergeCell ref="F323:F325"/>
-    <mergeCell ref="G323:J323"/>
-    <mergeCell ref="G324:J324"/>
-    <mergeCell ref="G325:J325"/>
-    <mergeCell ref="C318:C322"/>
-    <mergeCell ref="D318:D322"/>
-    <mergeCell ref="E318:E322"/>
-    <mergeCell ref="F318:F322"/>
-    <mergeCell ref="G318:J318"/>
-    <mergeCell ref="G319:J319"/>
-    <mergeCell ref="G320:J320"/>
-    <mergeCell ref="G321:J321"/>
-    <mergeCell ref="G322:J322"/>
-    <mergeCell ref="C329:C331"/>
-    <mergeCell ref="D329:D331"/>
-    <mergeCell ref="E329:E331"/>
-    <mergeCell ref="F329:F331"/>
-    <mergeCell ref="G329:J329"/>
-    <mergeCell ref="G330:J330"/>
-    <mergeCell ref="G331:J331"/>
-    <mergeCell ref="C326:C328"/>
-    <mergeCell ref="D326:D328"/>
-    <mergeCell ref="E326:E328"/>
-    <mergeCell ref="F326:F328"/>
-    <mergeCell ref="G326:J326"/>
-    <mergeCell ref="G327:J327"/>
-    <mergeCell ref="G328:J328"/>
-    <mergeCell ref="G337:J337"/>
-    <mergeCell ref="G332:J332"/>
-    <mergeCell ref="C333:C336"/>
-    <mergeCell ref="D333:D336"/>
-    <mergeCell ref="E333:E336"/>
-    <mergeCell ref="F333:F336"/>
-    <mergeCell ref="G333:J333"/>
-    <mergeCell ref="G334:J334"/>
-    <mergeCell ref="G335:J335"/>
-    <mergeCell ref="G336:J336"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
